--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="38400" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="38400" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="PRTC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="288">
   <si>
     <t>COMD</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -56,14 +56,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>NONE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITFC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>COMD</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -97,10 +89,6 @@
   </si>
   <si>
     <t>매치하는 아이디와 비밀번호를 찾을 수 없음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERRR 1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1216,6 +1204,14 @@
   </si>
   <si>
     <t>구분</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITFC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1313,14 +1309,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1349,8 +1337,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1383,6 +1378,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1771,15 +1772,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1798,6 +1790,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1816,7 +1819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1871,15 +1874,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1889,36 +1883,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1943,19 +1916,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -2026,6 +1999,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2314,12 +2329,12 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="34"/>
+    <col min="1" max="1" width="9" style="24"/>
     <col min="2" max="2" width="30" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="10"/>
@@ -2332,616 +2347,625 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" customFormat="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" customFormat="1">
+      <c r="A2" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" customFormat="1">
+      <c r="A3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="52"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A4" s="49"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" s="63" customFormat="1">
+      <c r="A5" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="69" customFormat="1">
+      <c r="A6" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="L6" s="71"/>
+    </row>
+    <row r="7" spans="1:12" s="69" customFormat="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" customFormat="1">
-      <c r="A2" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" customFormat="1">
-      <c r="A3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="62"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="6" t="s">
+      <c r="E7" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="70"/>
+    </row>
+    <row r="8" spans="1:12" s="69" customFormat="1">
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="63"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" s="31" customFormat="1">
-      <c r="A5" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="F8" s="73"/>
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="D8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="34" t="s">
-        <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="22" customFormat="1">
-      <c r="A10" s="35" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="19" customFormat="1">
+      <c r="A10" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="C11" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="34" t="s">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="C12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="D13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="19" customFormat="1">
+      <c r="A15" s="25" t="s">
         <v>43</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="22" customFormat="1">
-      <c r="A15" s="35" t="s">
-        <v>46</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="34" t="s">
-        <v>110</v>
+      <c r="A16" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="D17" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="D18" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="D19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="D21" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="D22" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="C23" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="D24" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="D25" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="D26" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="D27" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="D28" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="D30" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="D31" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="D32" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="34" t="s">
-        <v>150</v>
-      </c>
       <c r="B33" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="D34" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="D35" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="D36" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="C37" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="D38" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="D39" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="D40" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="34" t="s">
-        <v>161</v>
+      <c r="A41" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>165</v>
+        <v>155</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="D42" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="D43" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>173</v>
+      <c r="D43" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="D44" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>164</v>
+      <c r="D44" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="D45" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>168</v>
+      <c r="D45" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="C47" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="22" customFormat="1">
-      <c r="A48" s="35"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="19" customFormat="1">
+      <c r="A48" s="25"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F48" s="17"/>
-      <c r="J48" s="23"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="34" t="s">
-        <v>195</v>
+      <c r="A49" s="24" t="s">
+        <v>192</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="D49" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="D50" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2973,7 +2997,7 @@
   <cols>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.25" bestFit="1" customWidth="1"/>
@@ -2981,74 +3005,74 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>245</v>
+        <v>221</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>242</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>244</v>
+        <v>77</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>241</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="38" customFormat="1">
-      <c r="A3" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="43" t="str">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="28" customFormat="1">
+      <c r="A3" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="33" t="str">
         <f>B3</f>
         <v>BYST</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>274</v>
+        <v>164</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>271</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -3059,16 +3083,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>262</v>
+        <v>112</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>259</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -3077,33 +3101,33 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="38" customFormat="1">
-      <c r="A6" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="43" t="str">
+    <row r="6" spans="1:7" s="28" customFormat="1">
+      <c r="A6" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="33" t="str">
         <f>B6</f>
         <v>CHAT</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>274</v>
+        <v>213</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>271</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3112,244 +3136,244 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="38" customFormat="1">
-      <c r="A8" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" spans="1:7" s="38" customFormat="1">
-      <c r="A9" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="43" t="str">
+    <row r="8" spans="1:7" s="28" customFormat="1">
+      <c r="A8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" s="28" customFormat="1">
+      <c r="A9" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="33" t="str">
         <f>B9</f>
         <v>CRMR</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="38" customFormat="1">
-      <c r="A10" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="36" t="s">
+    <row r="10" spans="1:7" s="28" customFormat="1">
+      <c r="A10" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="1:7" s="28" customFormat="1">
+      <c r="A11" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:7" s="28" customFormat="1">
+      <c r="A12" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:7" s="28" customFormat="1">
+      <c r="A13" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:7" s="28" customFormat="1">
+      <c r="A14" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="43"/>
-    </row>
-    <row r="11" spans="1:7" s="38" customFormat="1">
-      <c r="A11" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="36" t="s">
+      <c r="C14" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:7" s="28" customFormat="1">
+      <c r="A15" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="43"/>
-    </row>
-    <row r="12" spans="1:7" s="38" customFormat="1">
-      <c r="A12" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="43"/>
-    </row>
-    <row r="13" spans="1:7" s="38" customFormat="1">
-      <c r="A13" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="43"/>
-    </row>
-    <row r="14" spans="1:7" s="38" customFormat="1">
-      <c r="A14" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="43"/>
-    </row>
-    <row r="15" spans="1:7" s="38" customFormat="1">
-      <c r="A15" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="43" t="str">
+      <c r="D15" s="33" t="str">
         <f>B15</f>
         <v>GMLT</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="38" customFormat="1">
-      <c r="A16" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="43"/>
-    </row>
-    <row r="17" spans="1:7" s="39" customFormat="1">
-      <c r="A17" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="42"/>
+    <row r="16" spans="1:7" s="28" customFormat="1">
+      <c r="A16" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" spans="1:7" s="29" customFormat="1">
+      <c r="A17" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="39" t="s">
-        <v>229</v>
+      <c r="A18" s="29" t="s">
+        <v>226</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>254</v>
+        <v>85</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>251</v>
       </c>
       <c r="F18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="38" customFormat="1">
-      <c r="A19" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="43" t="str">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="28" customFormat="1">
+      <c r="A19" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="33" t="str">
         <f>B19</f>
         <v>JOIN</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="38" customFormat="1">
-      <c r="A20" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="43" t="str">
+    <row r="20" spans="1:7" s="28" customFormat="1">
+      <c r="A20" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="33" t="str">
         <f>B20</f>
         <v>LEVE</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="38" customFormat="1">
-      <c r="A21" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="43" t="str">
+    <row r="21" spans="1:7" s="28" customFormat="1">
+      <c r="A21" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="33" t="str">
         <f>B21</f>
         <v>LGIN</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="38" customFormat="1">
-      <c r="A22" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="43" t="str">
+    <row r="22" spans="1:7" s="28" customFormat="1">
+      <c r="A22" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="33" t="str">
         <f>B22</f>
         <v>LGOT</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" t="s">
         <v>250</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="F23" t="s">
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="G23" t="s">
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>256</v>
       </c>
       <c r="F24">
         <v>7</v>
@@ -3360,158 +3384,158 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="36" customFormat="1">
+      <c r="A26" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="B26" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="1:7" s="36" customFormat="1">
+      <c r="A27" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="G25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="46" customFormat="1">
-      <c r="A26" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="43"/>
-    </row>
-    <row r="27" spans="1:7" s="46" customFormat="1">
-      <c r="A27" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="43"/>
+      <c r="B27" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="39" t="s">
-        <v>228</v>
+      <c r="A28" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D28" s="42" t="str">
+        <v>265</v>
+      </c>
+      <c r="D28" s="32" t="str">
         <f>D5</f>
         <v>4|6|8|10|12|14|16|18|20|22|24</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="42" t="s">
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F29" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="G29" s="47" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D30" s="42" t="str">
+      <c r="D30" s="32" t="str">
         <f>D5</f>
         <v>4|6|8|10|12|14|16|18|20|22|24</v>
       </c>
-      <c r="F30" s="47"/>
-    </row>
-    <row r="31" spans="1:7" s="46" customFormat="1">
-      <c r="A31" s="46" t="s">
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="1:7" s="36" customFormat="1">
+      <c r="A31" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="28" customFormat="1">
+      <c r="A33" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="43"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="F32" t="s">
-        <v>271</v>
-      </c>
-      <c r="G32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="38" customFormat="1">
-      <c r="A33" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="43" t="str">
+      <c r="B33" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="33" t="str">
         <f>B33</f>
         <v>PING</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="38" t="s">
-        <v>273</v>
+      <c r="A34" s="28" t="s">
+        <v>270</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>274</v>
+        <v>95</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>271</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3521,92 +3545,92 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="38" t="s">
-        <v>276</v>
+      <c r="A35" s="28" t="s">
+        <v>273</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="42" t="str">
+        <v>130</v>
+      </c>
+      <c r="D35" s="32" t="str">
         <f>D18</f>
         <v>[a-zA-Z\d_]+</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="46" customFormat="1">
-      <c r="A36" s="38" t="s">
+    <row r="36" spans="1:7" s="36" customFormat="1">
+      <c r="A36" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" spans="1:7" s="36" customFormat="1">
+      <c r="A37" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="33"/>
+    </row>
+    <row r="38" spans="1:7" s="36" customFormat="1">
+      <c r="A38" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="33"/>
+    </row>
+    <row r="39" spans="1:7" s="28" customFormat="1">
+      <c r="A39" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" spans="1:7" s="28" customFormat="1">
+      <c r="A40" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="D40" s="33"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="43"/>
-    </row>
-    <row r="37" spans="1:7" s="46" customFormat="1">
-      <c r="A37" s="46" t="s">
-        <v>278</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="43"/>
-    </row>
-    <row r="38" spans="1:7" s="46" customFormat="1">
-      <c r="A38" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="43"/>
-    </row>
-    <row r="39" spans="1:7" s="38" customFormat="1">
-      <c r="A39" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="D39" s="43"/>
-    </row>
-    <row r="40" spans="1:7" s="38" customFormat="1">
-      <c r="A40" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="D40" s="43"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C41" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>274</v>
+        <v>98</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>271</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3616,17 +3640,17 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="39" t="s">
-        <v>228</v>
+      <c r="A42" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>274</v>
+        <v>142</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>271</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -3635,164 +3659,164 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="46" customFormat="1">
-      <c r="A43" s="38" t="s">
+    <row r="43" spans="1:7" s="36" customFormat="1">
+      <c r="A43" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:7" s="28" customFormat="1">
+      <c r="A44" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="33"/>
+    </row>
+    <row r="45" spans="1:7" s="36" customFormat="1">
+      <c r="A45" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="33"/>
+    </row>
+    <row r="46" spans="1:7" s="28" customFormat="1">
+      <c r="A46" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="33"/>
+    </row>
+    <row r="47" spans="1:7" s="28" customFormat="1">
+      <c r="A47" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="33"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="28" customFormat="1">
+      <c r="A49" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:4" s="28" customFormat="1">
+      <c r="A50" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" s="28" customFormat="1">
+      <c r="A51" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" s="36" customFormat="1">
+      <c r="A52" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="33"/>
+    </row>
+    <row r="53" spans="1:4" s="36" customFormat="1">
+      <c r="A53" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="33"/>
+    </row>
+    <row r="54" spans="1:4" s="36" customFormat="1">
+      <c r="A54" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="33"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="B43" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="43"/>
-    </row>
-    <row r="44" spans="1:7" s="38" customFormat="1">
-      <c r="A44" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="43"/>
-    </row>
-    <row r="45" spans="1:7" s="46" customFormat="1">
-      <c r="A45" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="43"/>
-    </row>
-    <row r="46" spans="1:7" s="38" customFormat="1">
-      <c r="A46" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="43"/>
-    </row>
-    <row r="47" spans="1:7" s="38" customFormat="1">
-      <c r="A47" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="43"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="42" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="38" customFormat="1">
-      <c r="A49" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="43"/>
-    </row>
-    <row r="50" spans="1:4" s="38" customFormat="1">
-      <c r="A50" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="43"/>
-    </row>
-    <row r="51" spans="1:4" s="38" customFormat="1">
-      <c r="A51" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="43"/>
-    </row>
-    <row r="52" spans="1:4" s="46" customFormat="1">
-      <c r="A52" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B52" s="44" t="s">
+      <c r="B55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C55" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="43"/>
-    </row>
-    <row r="53" spans="1:4" s="46" customFormat="1">
-      <c r="A53" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="43"/>
-    </row>
-    <row r="54" spans="1:4" s="46" customFormat="1">
-      <c r="A54" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="B54" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="43"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="42" t="s">
-        <v>274</v>
+      <c r="D55" s="32" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3817,49 +3841,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="66"/>
+      <c r="A1" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="56"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="67"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>24</v>
+      <c r="A3" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="38400" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="38400" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="PRTC" sheetId="1" r:id="rId1"/>
@@ -1380,7 +1380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,7 +1819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2000,6 +2000,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2012,34 +2033,34 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2329,7 +2350,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2402,110 +2423,111 @@
       <c r="F4" s="53"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:12" s="63" customFormat="1">
-      <c r="A5" s="60" t="s">
+    <row r="5" spans="1:12" s="70" customFormat="1">
+      <c r="A5" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="69" customFormat="1">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:12" s="65" customFormat="1">
+      <c r="A6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="7" spans="1:12" s="69" customFormat="1">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65" t="s">
+      <c r="J6" s="66"/>
+      <c r="L6" s="73"/>
+    </row>
+    <row r="7" spans="1:12" s="65" customFormat="1">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="70"/>
-    </row>
-    <row r="8" spans="1:12" s="69" customFormat="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="67" t="s">
+      <c r="J7" s="66"/>
+    </row>
+    <row r="8" spans="1:12" s="65" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="J8" s="70"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="24" t="s">
+      <c r="F8" s="64"/>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="9" spans="1:12" s="65" customFormat="1">
+      <c r="A9" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="64" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="19" customFormat="1">
-      <c r="A10" s="25" t="s">
+      <c r="J9" s="66"/>
+    </row>
+    <row r="10" spans="1:12" s="79" customFormat="1">
+      <c r="A10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="20"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="24" t="s">

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="38400" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="38400" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="PRTC" sheetId="1" r:id="rId1"/>
@@ -1934,6 +1934,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1999,69 +2062,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2350,7 +2350,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2368,166 +2368,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" customFormat="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:12" customFormat="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="52" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="73" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:12" customFormat="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="52"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="73"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:12" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="74"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:12" s="70" customFormat="1">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:12" s="48" customFormat="1">
+      <c r="A5" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="65" customFormat="1">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:12" s="43" customFormat="1">
+      <c r="A6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="71" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="L6" s="73"/>
-    </row>
-    <row r="7" spans="1:12" s="65" customFormat="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61" t="s">
+      <c r="J6" s="44"/>
+      <c r="L6" s="51"/>
+    </row>
+    <row r="7" spans="1:12" s="43" customFormat="1">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="66"/>
-    </row>
-    <row r="8" spans="1:12" s="65" customFormat="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="63" t="s">
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="1:12" s="43" customFormat="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="J8" s="66"/>
-    </row>
-    <row r="9" spans="1:12" s="65" customFormat="1">
-      <c r="A9" s="60" t="s">
+      <c r="F8" s="42"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="1:12" s="43" customFormat="1">
+      <c r="A9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="66"/>
-    </row>
-    <row r="10" spans="1:12" s="79" customFormat="1">
-      <c r="A10" s="74" t="s">
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" spans="1:12" s="57" customFormat="1">
+      <c r="A10" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="80"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="24" t="s">
@@ -3863,26 +3863,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="78" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="38400" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="38400" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="PRTC" sheetId="1" r:id="rId1"/>
@@ -1231,19 +1231,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ERRR 3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>알 수 없는 에러</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>DSCR</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>클라이언트 상의 메시지</t>
+    <t>TMOT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME OUT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1418,7 +1418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,7 +1877,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2013,23 +2013,47 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2073,6 +2097,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2091,77 +2121,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2447,10 +2450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2460,8 +2463,8 @@
     <col min="3" max="3" width="55.375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="10"/>
     <col min="5" max="5" width="41.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.75" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="92" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.75" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="54" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" style="11" customWidth="1"/>
     <col min="9" max="10" width="9" style="11"/>
     <col min="11" max="11" width="9" style="12"/>
@@ -2470,81 +2473,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="82" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="84" t="s">
-        <v>294</v>
+      <c r="G2" s="56" t="s">
+        <v>292</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="85"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="57"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="94"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="58"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="87"/>
+      <c r="G5" s="51"/>
       <c r="I5" s="42" t="s">
         <v>288</v>
       </c>
@@ -2563,575 +2566,559 @@
       <c r="E6" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="52"/>
       <c r="K6" s="40"/>
       <c r="M6" s="44"/>
     </row>
-    <row r="7" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36" t="s">
+    <row r="7" spans="1:13" s="87" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="81"/>
+      <c r="B7" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="K7" s="40"/>
-    </row>
-    <row r="8" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="38" t="s">
+      <c r="G7" s="86"/>
+      <c r="K7" s="88"/>
+    </row>
+    <row r="8" spans="1:13" s="87" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="89"/>
-      <c r="K8" s="40"/>
-    </row>
-    <row r="9" spans="1:13" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>293</v>
-      </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="90" t="s">
-        <v>295</v>
-      </c>
-      <c r="K9" s="77"/>
-    </row>
-    <row r="10" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="K8" s="88"/>
+    </row>
+    <row r="9" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="1:13" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="G9" s="53"/>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="1:13" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D10" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E10" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F10" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="91"/>
-      <c r="K11" s="50"/>
+      <c r="G10" s="94"/>
+      <c r="K10" s="95"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>208</v>
+        <v>36</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="55"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="80" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="93"/>
-      <c r="K16" s="18"/>
+      <c r="D16" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="80" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D18" s="10" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" s="10" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>284</v>
+      </c>
       <c r="D20" s="10" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="72" t="s">
-        <v>284</v>
-      </c>
       <c r="D21" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D23" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="80" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>137</v>
+      </c>
       <c r="D29" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>133</v>
+        <v>111</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>137</v>
-      </c>
       <c r="D30" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="80" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D33" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>12</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D34" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="80" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D35" s="10" t="s">
+      <c r="F37" s="48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D38" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E38" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D36" s="10" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="E39" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="C41" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="80" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="10" t="s">
+      <c r="F41" s="48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D40" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D42" s="10" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D44" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D45" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="80" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="10" t="s">
+      <c r="F46" s="48" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C47" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D44" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D46" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="80" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C48" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13" t="s">
+    <row r="48" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="22"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E48" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G49" s="93"/>
-      <c r="K49" s="18"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
+      <c r="G48" s="55"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B49" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="D49" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D50" s="10" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F50" s="80" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D51" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="F52" s="80" t="s">
+      <c r="F51" s="48" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3155,14 +3142,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A40" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" style="26"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="29" bestFit="1" customWidth="1"/>
@@ -3172,7 +3160,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="26" t="s">
         <v>216</v>
       </c>
       <c r="B1" t="s">
@@ -3195,7 +3183,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="26" t="s">
         <v>217</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3215,7 +3203,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>218</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -3230,7 +3218,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="26" t="s">
         <v>219</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3250,7 +3238,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="26" t="s">
         <v>219</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3270,7 +3258,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>225</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -3285,7 +3273,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="26" t="s">
         <v>227</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3305,7 +3293,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>216</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -3317,7 +3305,7 @@
       <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>225</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -3332,7 +3320,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>216</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -3344,7 +3332,7 @@
       <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>228</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -3356,7 +3344,7 @@
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>216</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -3368,7 +3356,7 @@
       <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>228</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -3380,7 +3368,7 @@
       <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>216</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -3392,7 +3380,7 @@
       <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>229</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -3407,7 +3395,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>230</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -3451,7 +3439,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>239</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -3466,7 +3454,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>240</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -3481,7 +3469,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>225</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -3496,7 +3484,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="26" t="s">
         <v>225</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -3531,7 +3519,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="26" t="s">
         <v>246</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3551,7 +3539,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="26" t="s">
         <v>248</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3571,7 +3559,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>251</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -3583,7 +3571,7 @@
       <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="26" t="s">
         <v>252</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -3610,7 +3598,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="26" t="s">
         <v>254</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -3630,7 +3618,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="26" t="s">
         <v>219</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3646,7 +3634,7 @@
       <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="26" t="s">
         <v>260</v>
       </c>
       <c r="B31" s="31" t="s">
@@ -3678,7 +3666,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="26" t="s">
         <v>263</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -3693,7 +3681,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="26" t="s">
         <v>264</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3713,7 +3701,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="26" t="s">
         <v>267</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3728,7 +3716,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="26" t="s">
         <v>268</v>
       </c>
       <c r="B36" s="31" t="s">
@@ -3740,7 +3728,7 @@
       <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="26" t="s">
         <v>269</v>
       </c>
       <c r="B37" s="31" t="s">
@@ -3752,7 +3740,7 @@
       <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="26" t="s">
         <v>216</v>
       </c>
       <c r="B38" s="31" t="s">
@@ -3764,7 +3752,7 @@
       <c r="D38" s="30"/>
     </row>
     <row r="39" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="26" t="s">
         <v>270</v>
       </c>
       <c r="B39" s="23" t="s">
@@ -3776,7 +3764,7 @@
       <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="26" t="s">
         <v>225</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -3828,7 +3816,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="26" t="s">
         <v>216</v>
       </c>
       <c r="B43" s="31" t="s">
@@ -3840,7 +3828,7 @@
       <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="26" t="s">
         <v>273</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -3852,7 +3840,7 @@
       <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="26" t="s">
         <v>274</v>
       </c>
       <c r="B45" s="31" t="s">
@@ -3863,127 +3851,139 @@
       </c>
       <c r="D45" s="30"/>
     </row>
-    <row r="46" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
+    <row r="46" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B47" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C47" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="30"/>
-    </row>
-    <row r="47" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B48" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C48" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="30"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D49" s="29" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+    <row r="50" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B50" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C50" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="30"/>
-    </row>
-    <row r="50" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B51" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C51" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="30"/>
-    </row>
-    <row r="51" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B52" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C52" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="30"/>
-    </row>
-    <row r="52" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B53" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C53" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="30"/>
-    </row>
-    <row r="53" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B54" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C54" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="30"/>
-    </row>
-    <row r="54" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
+      <c r="D54" s="30"/>
+    </row>
+    <row r="55" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B55" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C55" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="30"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D56" s="29" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4009,26 +4009,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="78" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="38400" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="38400" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="PRTC" sheetId="1" r:id="rId1"/>
@@ -2046,6 +2046,51 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2120,51 +2165,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2452,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2473,65 +2473,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="64" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="73" t="s">
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="71" t="s">
         <v>292</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="57"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="72"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="73"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
@@ -2573,39 +2573,39 @@
       <c r="K6" s="40"/>
       <c r="M6" s="44"/>
     </row>
-    <row r="7" spans="1:13" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82" t="s">
+    <row r="7" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="K7" s="88"/>
-    </row>
-    <row r="8" spans="1:13" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="84" t="s">
+      <c r="G7" s="61"/>
+      <c r="K7" s="63"/>
+    </row>
+    <row r="8" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="K8" s="88"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
@@ -2629,25 +2629,25 @@
       <c r="G9" s="53"/>
       <c r="K9" s="40"/>
     </row>
-    <row r="10" spans="1:13" s="93" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+    <row r="10" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="94"/>
-      <c r="K10" s="95"/>
+      <c r="G10" s="69"/>
+      <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
@@ -3083,44 +3083,57 @@
       <c r="G48" s="55"/>
       <c r="K48" s="18"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
+    <row r="49" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="47" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D50" s="10" t="s">
+      <c r="G49" s="53"/>
+      <c r="K49" s="40"/>
+    </row>
+    <row r="50" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="36" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
+      <c r="F50" s="47"/>
+      <c r="G50" s="53"/>
+      <c r="K50" s="40"/>
+    </row>
+    <row r="51" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="B51" s="57"/>
+      <c r="C51" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="D51" s="59"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="60" t="s">
         <v>291</v>
       </c>
+      <c r="G51" s="61"/>
+      <c r="K51" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3144,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3999,7 +4012,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4009,26 +4022,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="92"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="78"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="93"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="93" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -4040,18 +4053,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="38400" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="38400" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="PRTC" sheetId="1" r:id="rId1"/>
@@ -2452,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD50"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9600" windowWidth="38400" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="38400" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="PRTC" sheetId="1" r:id="rId1"/>
@@ -1251,7 +1251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2007,12 +2007,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2025,17 +2019,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2165,6 +2153,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2452,19 +2452,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="21"/>
     <col min="2" max="2" width="30" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="10"/>
     <col min="5" max="5" width="41.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.75" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.75" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="50" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" style="11" customWidth="1"/>
     <col min="9" max="10" width="9" style="11"/>
     <col min="11" max="11" width="9" style="12"/>
@@ -2472,188 +2472,188 @@
     <col min="13" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:13" customFormat="1">
+      <c r="A1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+    <row r="2" spans="1:13" customFormat="1">
+      <c r="A2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="79" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="88" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="67" t="s">
         <v>292</v>
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+    <row r="3" spans="1:13" customFormat="1">
+      <c r="A3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="72"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="68"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="83"/>
+    <row r="4" spans="1:13" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="69"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="42" customFormat="1">
       <c r="A5" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="48"/>
       <c r="I5" s="42" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:13" s="58" customFormat="1">
+      <c r="A6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="K6" s="40"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57" t="s">
+      <c r="G6" s="94"/>
+      <c r="K6" s="59"/>
+      <c r="M6" s="95"/>
+    </row>
+    <row r="7" spans="1:13" s="58" customFormat="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="K7" s="63"/>
-    </row>
-    <row r="8" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="59" t="s">
+      <c r="G7" s="57"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" s="58" customFormat="1">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="K8" s="63"/>
-    </row>
-    <row r="9" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:13" s="58" customFormat="1">
+      <c r="A9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="K9" s="40"/>
-    </row>
-    <row r="10" spans="1:13" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="G9" s="57"/>
+      <c r="K9" s="59"/>
+    </row>
+    <row r="10" spans="1:13" s="64" customFormat="1">
+      <c r="A10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="K10" s="70"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G10" s="65"/>
+      <c r="K10" s="66"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="43" t="s">
         <v>208</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -2662,11 +2662,11 @@
       <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="21" t="s">
         <v>36</v>
       </c>
@@ -2682,11 +2682,11 @@
       <c r="E12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="D13" s="10" t="s">
         <v>39</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="21" t="s">
         <v>210</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="17" customFormat="1">
       <c r="A15" s="22" t="s">
         <v>42</v>
       </c>
@@ -2719,10 +2719,10 @@
       <c r="F15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="55"/>
+      <c r="G15" s="51"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="21" t="s">
         <v>105</v>
       </c>
@@ -2738,11 +2738,11 @@
       <c r="E16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="46" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="D17" s="10" t="s">
         <v>172</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="D19" s="10" t="s">
         <v>112</v>
       </c>
@@ -2766,11 +2766,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="44" t="s">
         <v>284</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -2779,11 +2779,11 @@
       <c r="E20" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="46" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="D21" s="10" t="s">
         <v>172</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="D22" s="10" t="s">
         <v>173</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="21" t="s">
         <v>122</v>
       </c>
@@ -2815,11 +2815,11 @@
       <c r="E23" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="D24" s="10" t="s">
         <v>172</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="D25" s="10" t="s">
         <v>174</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="D26" s="10" t="s">
         <v>175</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="D27" s="10" t="s">
         <v>176</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="D28" s="10" t="s">
         <v>177</v>
       </c>
@@ -2859,11 +2859,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="44" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -2872,11 +2872,11 @@
       <c r="E29" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="46" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="D30" s="10" t="s">
         <v>172</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="D31" s="10" t="s">
         <v>178</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="D32" s="10" t="s">
         <v>179</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="21" t="s">
         <v>144</v>
       </c>
@@ -2916,11 +2916,11 @@
       <c r="E33" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="46" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="D34" s="10" t="s">
         <v>172</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="D35" s="10" t="s">
         <v>13</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="D36" s="10" t="s">
         <v>112</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="21" t="s">
         <v>148</v>
       </c>
@@ -2960,11 +2960,11 @@
       <c r="E37" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="46" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="D38" s="10" t="s">
         <v>172</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="D39" s="10" t="s">
         <v>13</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="D40" s="10" t="s">
         <v>180</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="21" t="s">
         <v>154</v>
       </c>
@@ -3004,11 +3004,11 @@
       <c r="E41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="46" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="D42" s="10" t="s">
         <v>172</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="D43" s="20" t="s">
         <v>181</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="D44" s="20" t="s">
         <v>182</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="D45" s="20" t="s">
         <v>119</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="21" t="s">
         <v>195</v>
       </c>
@@ -3053,11 +3053,11 @@
       <c r="E46" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="46" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="C47" s="8" t="s">
         <v>200</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="17" customFormat="1">
       <c r="A48" s="22"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13" t="s">
@@ -3080,10 +3080,10 @@
       <c r="E48" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="G48" s="55"/>
+      <c r="G48" s="51"/>
       <c r="K48" s="18"/>
     </row>
-    <row r="49" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="39" customFormat="1">
       <c r="A49" s="35" t="s">
         <v>187</v>
       </c>
@@ -3099,13 +3099,13 @@
       <c r="E49" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="47" t="s">
+      <c r="F49" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="G49" s="53"/>
+      <c r="G49" s="49"/>
       <c r="K49" s="40"/>
     </row>
-    <row r="50" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="39" customFormat="1">
       <c r="A50" s="35"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -3115,25 +3115,25 @@
       <c r="E50" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="53"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="49"/>
       <c r="K50" s="40"/>
     </row>
-    <row r="51" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="56" t="s">
+    <row r="51" spans="1:11" s="58" customFormat="1">
+      <c r="A51" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="58" t="s">
+      <c r="B51" s="53"/>
+      <c r="C51" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="60" t="s">
+      <c r="D51" s="55"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="G51" s="61"/>
-      <c r="K51" s="63"/>
+      <c r="G51" s="57"/>
+      <c r="K51" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3157,11 +3157,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="26"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
@@ -3172,7 +3172,7 @@
     <col min="7" max="7" width="53.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="26" t="s">
         <v>216</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
         <v>217</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="25" customFormat="1">
       <c r="A3" s="26" t="s">
         <v>218</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>BYST</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="26" t="s">
         <v>219</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="26" t="s">
         <v>219</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="25" customFormat="1">
       <c r="A6" s="26" t="s">
         <v>225</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>CHAT</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="26" t="s">
         <v>227</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="25" customFormat="1">
       <c r="A8" s="26" t="s">
         <v>216</v>
       </c>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="25" customFormat="1">
       <c r="A9" s="26" t="s">
         <v>225</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>CRMR</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="25" customFormat="1">
       <c r="A10" s="26" t="s">
         <v>216</v>
       </c>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="25" customFormat="1">
       <c r="A11" s="26" t="s">
         <v>228</v>
       </c>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="25" customFormat="1">
       <c r="A12" s="26" t="s">
         <v>216</v>
       </c>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="25" customFormat="1">
       <c r="A13" s="26" t="s">
         <v>228</v>
       </c>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="25" customFormat="1">
       <c r="A14" s="26" t="s">
         <v>216</v>
       </c>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="25" customFormat="1">
       <c r="A15" s="26" t="s">
         <v>229</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>GMLT</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="25" customFormat="1">
       <c r="A16" s="26" t="s">
         <v>230</v>
       </c>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="26" customFormat="1">
       <c r="A17" s="26" t="s">
         <v>231</v>
       </c>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="D17" s="29"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="26" t="s">
         <v>220</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="25" customFormat="1">
       <c r="A19" s="26" t="s">
         <v>239</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>JOIN</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="25" customFormat="1">
       <c r="A20" s="26" t="s">
         <v>240</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>LEVE</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="25" customFormat="1">
       <c r="A21" s="26" t="s">
         <v>225</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>LGIN</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="25" customFormat="1">
       <c r="A22" s="26" t="s">
         <v>225</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>LGOT</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="26" t="s">
         <v>241</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="26" t="s">
         <v>246</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="26" t="s">
         <v>248</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="33" customFormat="1">
       <c r="A26" s="26" t="s">
         <v>251</v>
       </c>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="D26" s="30"/>
     </row>
-    <row r="27" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="33" customFormat="1">
       <c r="A27" s="26" t="s">
         <v>252</v>
       </c>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="26" t="s">
         <v>219</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>4|6|8|10|12|14|16|18|20|22|24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="26" t="s">
         <v>254</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="26" t="s">
         <v>219</v>
       </c>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="33" customFormat="1">
       <c r="A31" s="26" t="s">
         <v>260</v>
       </c>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="26" t="s">
         <v>261</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="25" customFormat="1">
       <c r="A33" s="26" t="s">
         <v>263</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>PING</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="26" t="s">
         <v>264</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="26" t="s">
         <v>267</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>[a-zA-Z\d_]+</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="33" customFormat="1">
       <c r="A36" s="26" t="s">
         <v>268</v>
       </c>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="33" customFormat="1">
       <c r="A37" s="26" t="s">
         <v>269</v>
       </c>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="33" customFormat="1">
       <c r="A38" s="26" t="s">
         <v>216</v>
       </c>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="D38" s="30"/>
     </row>
-    <row r="39" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="25" customFormat="1">
       <c r="A39" s="26" t="s">
         <v>270</v>
       </c>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="D39" s="30"/>
     </row>
-    <row r="40" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="25" customFormat="1">
       <c r="A40" s="26" t="s">
         <v>225</v>
       </c>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="D40" s="30"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="26" t="s">
         <v>272</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="26" t="s">
         <v>219</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="33" customFormat="1">
       <c r="A43" s="26" t="s">
         <v>216</v>
       </c>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="D43" s="30"/>
     </row>
-    <row r="44" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="25" customFormat="1">
       <c r="A44" s="26" t="s">
         <v>273</v>
       </c>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D44" s="30"/>
     </row>
-    <row r="45" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="33" customFormat="1">
       <c r="A45" s="26" t="s">
         <v>274</v>
       </c>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="D45" s="30"/>
     </row>
-    <row r="46" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="33" customFormat="1">
       <c r="A46" s="26" t="s">
         <v>295</v>
       </c>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="D46" s="30"/>
     </row>
-    <row r="47" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="25" customFormat="1">
       <c r="A47" s="26" t="s">
         <v>275</v>
       </c>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="D47" s="30"/>
     </row>
-    <row r="48" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="25" customFormat="1">
       <c r="A48" s="26" t="s">
         <v>225</v>
       </c>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="D48" s="30"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="26" t="s">
         <v>276</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" s="25" customFormat="1">
       <c r="A50" s="26" t="s">
         <v>225</v>
       </c>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="D50" s="30"/>
     </row>
-    <row r="51" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" s="25" customFormat="1">
       <c r="A51" s="26" t="s">
         <v>277</v>
       </c>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="D51" s="30"/>
     </row>
-    <row r="52" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" s="25" customFormat="1">
       <c r="A52" s="26" t="s">
         <v>275</v>
       </c>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="D52" s="30"/>
     </row>
-    <row r="53" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" s="33" customFormat="1">
       <c r="A53" s="26" t="s">
         <v>216</v>
       </c>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="D53" s="30"/>
     </row>
-    <row r="54" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" s="33" customFormat="1">
       <c r="A54" s="26" t="s">
         <v>278</v>
       </c>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="D54" s="30"/>
     </row>
-    <row r="55" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" s="33" customFormat="1">
       <c r="A55" s="26" t="s">
         <v>279</v>
       </c>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="D55" s="30"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="26" t="s">
         <v>219</v>
       </c>
@@ -4015,35 +4015,35 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="92"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="90"/>
-      <c r="B2" s="93"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="B1" s="88"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="86"/>
+      <c r="B2" s="89"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="89" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10800" windowWidth="38400" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="11400" windowWidth="38400" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="PRTC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="318">
   <si>
     <t>COMD</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -592,10 +592,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>최고 갯수(7)개의 밭을 이미 가지고 있음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>TRWW</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -801,10 +797,6 @@
   </si>
   <si>
     <t>PLYR에게 메시지를 보냅니다. MESG는 띄어쓰기를 포함합니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 정보를 찾을 수 없음</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1244,6 +1236,101 @@
   </si>
   <si>
     <t>알림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRIEND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 되어있지 않음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLYR를 친구 목록에 추가합니다. PLYR에게 알림이 갑니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLYR TRUE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLYR FLSE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLYR를 친구 목록에서 제외합니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 추가되어 있음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가되어 있지 않음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLYR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCTG</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 접속해있지 않음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 PLYR를 초대합니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 오프라인 상태임</t>
+  </si>
+  <si>
+    <t>최고 갯수(7)개의 세트를 이미 가지고 있음</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1877,7 +1964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1938,9 +2025,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2079,6 +2163,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2153,18 +2249,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2450,21 +2534,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="21"/>
+    <col min="1" max="1" width="9" style="20"/>
     <col min="2" max="2" width="30" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="10"/>
     <col min="5" max="5" width="41.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.75" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.75" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="49" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" style="11" customWidth="1"/>
     <col min="9" max="10" width="9" style="11"/>
     <col min="11" max="11" width="9" style="12"/>
@@ -2473,188 +2557,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" customFormat="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:13" customFormat="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="84" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="67" t="s">
-        <v>292</v>
+      <c r="G2" s="70" t="s">
+        <v>290</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:13" customFormat="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="68"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="71"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="79"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="69"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="72"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:13" s="42" customFormat="1">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:13" s="41" customFormat="1">
+      <c r="A5" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="48"/>
-      <c r="I5" s="42" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="58" customFormat="1">
-      <c r="A6" s="52" t="s">
+      <c r="G5" s="47"/>
+      <c r="I5" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="57" customFormat="1">
+      <c r="A6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="92" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="K6" s="58"/>
+      <c r="M6" s="69"/>
+    </row>
+    <row r="7" spans="1:13" s="57" customFormat="1">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="1:13" s="57" customFormat="1">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="1:13" s="57" customFormat="1">
+      <c r="A9" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="56"/>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="1:13" s="63" customFormat="1">
+      <c r="A10" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="94"/>
-      <c r="K6" s="59"/>
-      <c r="M6" s="95"/>
-    </row>
-    <row r="7" spans="1:13" s="58" customFormat="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="57"/>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:13" s="58" customFormat="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:13" s="58" customFormat="1">
-      <c r="A9" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="57"/>
-      <c r="K9" s="59"/>
-    </row>
-    <row r="10" spans="1:13" s="64" customFormat="1">
-      <c r="A10" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="K10" s="66"/>
+      <c r="G10" s="64"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>208</v>
+      <c r="C11" s="42" t="s">
+        <v>206</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>30</v>
@@ -2662,12 +2746,12 @@
       <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="45" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2682,7 +2766,7 @@
       <c r="E12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2695,20 +2779,20 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="21" t="s">
-        <v>210</v>
+      <c r="A14" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="17" customFormat="1">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>43</v>
@@ -2719,11 +2803,11 @@
       <c r="F15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="51"/>
+      <c r="G15" s="50"/>
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2733,18 +2817,18 @@
         <v>12</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="45" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="D17" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>113</v>
@@ -2755,7 +2839,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2767,25 +2851,25 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>284</v>
+      <c r="C20" s="43" t="s">
+        <v>282</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="45" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="D21" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>113</v>
@@ -2793,35 +2877,35 @@
     </row>
     <row r="22" spans="1:6">
       <c r="D22" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>122</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="45" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="D24" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>113</v>
@@ -2829,15 +2913,15 @@
     </row>
     <row r="25" spans="1:6">
       <c r="D25" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="D26" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>131</v>
@@ -2845,7 +2929,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="D27" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>132</v>
@@ -2853,32 +2937,32 @@
     </row>
     <row r="28" spans="1:6">
       <c r="D28" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="43" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>167</v>
+      <c r="F29" s="45" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="D30" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>113</v>
@@ -2886,7 +2970,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="D31" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>140</v>
@@ -2894,246 +2978,328 @@
     </row>
     <row r="32" spans="1:6">
       <c r="D32" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="F33" s="45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="D34" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:6">
       <c r="D35" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="D36" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="F37" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="D38" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:6">
       <c r="D39" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="D40" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="20" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="21" t="s">
-        <v>154</v>
-      </c>
       <c r="B41" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="46" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="F41" s="45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="D42" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="D43" s="20" t="s">
+    <row r="43" spans="1:6">
+      <c r="D43" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="D44" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E43" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="D44" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="D45" s="20" t="s">
+      <c r="E44" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="D45" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="16" t="s">
+      <c r="E45" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="D47" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="C49" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="17" customFormat="1">
+      <c r="A50" s="21"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="C47" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="17" customFormat="1">
-      <c r="A48" s="22"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="15" t="s">
+      <c r="D50" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" s="50"/>
+      <c r="K50" s="18"/>
+    </row>
+    <row r="51" spans="1:11" s="38" customFormat="1">
+      <c r="A51" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G48" s="51"/>
-      <c r="K48" s="18"/>
-    </row>
-    <row r="49" spans="1:11" s="39" customFormat="1">
-      <c r="A49" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="36" t="s">
+      <c r="F51" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="G49" s="49"/>
-      <c r="K49" s="40"/>
-    </row>
-    <row r="50" spans="1:11" s="39" customFormat="1">
-      <c r="A50" s="35"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="F50" s="45"/>
-      <c r="G50" s="49"/>
-      <c r="K50" s="40"/>
-    </row>
-    <row r="51" spans="1:11" s="58" customFormat="1">
-      <c r="A51" s="52" t="s">
+      <c r="G51" s="48"/>
+      <c r="K51" s="39"/>
+    </row>
+    <row r="52" spans="1:11" s="38" customFormat="1">
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="F52" s="44"/>
+      <c r="G52" s="48"/>
+      <c r="K52" s="39"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="D54" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F54" s="19"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="B55" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="D56" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="57" customFormat="1">
+      <c r="A57" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B57" s="52"/>
+      <c r="C57" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" s="54"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="D51" s="55"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="G51" s="57"/>
-      <c r="K51" s="59"/>
+      <c r="G57" s="56"/>
+      <c r="K57" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3155,49 +3321,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A28" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="26"/>
+    <col min="1" max="1" width="9" style="25"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="26" t="s">
-        <v>216</v>
+      <c r="A1" s="25" t="s">
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="25" t="s">
         <v>215</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="26" t="s">
-        <v>217</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>
@@ -3205,43 +3371,43 @@
       <c r="C2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>235</v>
+      <c r="D2" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="25" customFormat="1">
-      <c r="A3" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="24" customFormat="1">
+      <c r="A3" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="30" t="str">
+      <c r="D3" s="29" t="str">
         <f>B3</f>
         <v>BYST</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26" t="s">
-        <v>219</v>
+      <c r="A4" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>265</v>
+      <c r="D4" s="28" t="s">
+        <v>263</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -3251,8 +3417,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="26" t="s">
-        <v>219</v>
+      <c r="A5" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>109</v>
@@ -3260,8 +3426,8 @@
       <c r="C5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>253</v>
+      <c r="D5" s="28" t="s">
+        <v>251</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -3270,33 +3436,33 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="25" customFormat="1">
-      <c r="A6" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="30" t="str">
+    <row r="6" spans="1:7" s="24" customFormat="1">
+      <c r="A6" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="29" t="str">
         <f>B6</f>
         <v>CHAT</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26" t="s">
-        <v>227</v>
+      <c r="A7" s="25" t="s">
+        <v>225</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>265</v>
+        <v>205</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>263</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3305,699 +3471,711 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="25" customFormat="1">
-      <c r="A8" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="23" t="s">
+    <row r="8" spans="1:7" s="24" customFormat="1">
+      <c r="A8" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" s="25" customFormat="1">
-      <c r="A9" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="30" t="str">
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" s="24" customFormat="1">
+      <c r="A9" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="29" t="str">
         <f>B9</f>
         <v>CRMR</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="25" customFormat="1">
-      <c r="A10" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="1:7" s="24" customFormat="1">
+      <c r="A10" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" s="25" customFormat="1">
-      <c r="A11" s="26" t="s">
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" s="24" customFormat="1">
+      <c r="A11" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" s="24" customFormat="1">
+      <c r="A12" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" s="24" customFormat="1">
+      <c r="A13" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" s="24" customFormat="1">
+      <c r="A14" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" s="24" customFormat="1">
+      <c r="A15" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" s="24" customFormat="1">
+      <c r="A16" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="29" t="str">
+        <f>B16</f>
+        <v>GMLT</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="24" customFormat="1">
+      <c r="A17" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" s="25" customFormat="1">
-      <c r="A12" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" s="25" customFormat="1">
-      <c r="A13" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" s="25" customFormat="1">
-      <c r="A14" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" s="25" customFormat="1">
-      <c r="A15" s="26" t="s">
+      <c r="B17" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" s="25" customFormat="1">
+      <c r="A18" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="30" t="str">
-        <f>B15</f>
-        <v>GMLT</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="25" customFormat="1">
-      <c r="A16" s="26" t="s">
+      <c r="B18" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="24" customFormat="1">
+      <c r="A20" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="29" t="str">
+        <f>B20</f>
+        <v>JOIN</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="24" customFormat="1">
+      <c r="A21" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="29" t="str">
+        <f>B21</f>
+        <v>LEVE</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="24" customFormat="1">
+      <c r="A22" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="29" t="str">
+        <f>B22</f>
+        <v>LGIN</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="24" customFormat="1">
+      <c r="A23" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="29" t="str">
+        <f>B23</f>
+        <v>LGOT</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" s="26" customFormat="1">
-      <c r="A17" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F18" t="s">
-        <v>237</v>
-      </c>
-      <c r="G18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="25" customFormat="1">
-      <c r="A19" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="30" t="str">
-        <f>B19</f>
-        <v>JOIN</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="25" customFormat="1">
-      <c r="A20" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="30" t="str">
-        <f>B20</f>
-        <v>LEVE</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="25" customFormat="1">
-      <c r="A21" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="30" t="str">
-        <f>B21</f>
-        <v>LGIN</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="25" customFormat="1">
-      <c r="A22" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="30" t="str">
-        <f>B22</f>
-        <v>LGOT</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="F23" t="s">
-        <v>243</v>
-      </c>
-      <c r="G23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="29" t="s">
+      <c r="F26" t="s">
         <v>247</v>
       </c>
-      <c r="F24">
-        <v>7</v>
-      </c>
-      <c r="G24">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="26" t="s">
+      <c r="G26" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="F25" t="s">
+    </row>
+    <row r="27" spans="1:7" s="32" customFormat="1">
+      <c r="A27" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="G25" t="s">
+      <c r="B27" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:7" s="32" customFormat="1">
+      <c r="A28" s="25" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="33" customFormat="1">
-      <c r="A26" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" s="33" customFormat="1">
-      <c r="A27" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C28" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="30"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D28" s="29" t="str">
+      <c r="C29" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="28" t="str">
         <f>D5</f>
         <v>4|6|8|10|12|14|16|18|20|22|24</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="26" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="29" t="s">
+      <c r="G30" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="F29" s="34" t="s">
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G29" s="34" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="29" t="str">
+      <c r="D31" s="28" t="str">
         <f>D5</f>
         <v>4|6|8|10|12|14|16|18|20|22|24</v>
       </c>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" spans="1:7" s="33" customFormat="1">
-      <c r="A31" s="26" t="s">
+      <c r="F31" s="33"/>
+    </row>
+    <row r="32" spans="1:7" s="32" customFormat="1">
+      <c r="A32" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" t="s">
         <v>260</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="30"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="26" t="s">
+      <c r="G33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="24" customFormat="1">
+      <c r="A34" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="B34" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="29" t="str">
+        <f>B34</f>
+        <v>PING</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="G32" t="s">
+      <c r="B35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="28" t="str">
+        <f>D19</f>
+        <v>[a-zA-Z\d_]+</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="32" customFormat="1">
+      <c r="A37" s="25" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="25" customFormat="1">
-      <c r="A33" s="26" t="s">
+      <c r="B37" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="29"/>
+    </row>
+    <row r="38" spans="1:7" s="32" customFormat="1">
+      <c r="A38" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="29"/>
+    </row>
+    <row r="39" spans="1:7" s="32" customFormat="1">
+      <c r="A39" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="29"/>
+    </row>
+    <row r="40" spans="1:7" s="24" customFormat="1">
+      <c r="A40" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="29"/>
+    </row>
+    <row r="41" spans="1:7" s="24" customFormat="1">
+      <c r="A41" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="29"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="30" t="str">
-        <f>B33</f>
-        <v>PING</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="F34">
+      <c r="F42">
         <v>1</v>
       </c>
-      <c r="G34">
+      <c r="G42">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="29" t="str">
-        <f>D18</f>
-        <v>[a-zA-Z\d_]+</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="33" customFormat="1">
-      <c r="A36" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="30"/>
-    </row>
-    <row r="37" spans="1:7" s="33" customFormat="1">
-      <c r="A37" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="30"/>
-    </row>
-    <row r="38" spans="1:7" s="33" customFormat="1">
-      <c r="A38" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="30"/>
-    </row>
-    <row r="39" spans="1:7" s="25" customFormat="1">
-      <c r="A39" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="30"/>
-    </row>
-    <row r="40" spans="1:7" s="25" customFormat="1">
-      <c r="A40" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="24" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="32" customFormat="1">
+      <c r="A44" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="29"/>
+    </row>
+    <row r="45" spans="1:7" s="24" customFormat="1">
+      <c r="A45" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="D40" s="30"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="26" t="s">
+      <c r="B45" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="29"/>
+    </row>
+    <row r="46" spans="1:7" s="32" customFormat="1">
+      <c r="A46" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="33" customFormat="1">
-      <c r="A43" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="D43" s="30"/>
-    </row>
-    <row r="44" spans="1:7" s="25" customFormat="1">
-      <c r="A44" s="26" t="s">
+      <c r="B46" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="29"/>
+    </row>
+    <row r="47" spans="1:7" s="32" customFormat="1">
+      <c r="A47" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" s="29"/>
+    </row>
+    <row r="48" spans="1:7" s="24" customFormat="1">
+      <c r="A48" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" s="30"/>
-    </row>
-    <row r="45" spans="1:7" s="33" customFormat="1">
-      <c r="A45" s="26" t="s">
+      <c r="B48" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="29"/>
+    </row>
+    <row r="49" spans="1:4" s="24" customFormat="1">
+      <c r="A49" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="29"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="30"/>
-    </row>
-    <row r="46" spans="1:7" s="33" customFormat="1">
-      <c r="A46" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="D46" s="30"/>
-    </row>
-    <row r="47" spans="1:7" s="25" customFormat="1">
-      <c r="A47" s="26" t="s">
+      <c r="B50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="24" customFormat="1">
+      <c r="A51" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" spans="1:4" s="24" customFormat="1">
+      <c r="A52" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="30"/>
-    </row>
-    <row r="48" spans="1:7" s="25" customFormat="1">
-      <c r="A48" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="30"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="26" t="s">
+      <c r="B52" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="29"/>
+    </row>
+    <row r="53" spans="1:4" s="24" customFormat="1">
+      <c r="A53" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="29"/>
+    </row>
+    <row r="54" spans="1:4" s="32" customFormat="1">
+      <c r="A54" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="29"/>
+    </row>
+    <row r="55" spans="1:4" s="32" customFormat="1">
+      <c r="A55" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="25" customFormat="1">
-      <c r="A50" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="30"/>
-    </row>
-    <row r="51" spans="1:4" s="25" customFormat="1">
-      <c r="A51" s="26" t="s">
+      <c r="B55" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="29"/>
+    </row>
+    <row r="56" spans="1:4" s="32" customFormat="1">
+      <c r="A56" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="30"/>
-    </row>
-    <row r="52" spans="1:4" s="25" customFormat="1">
-      <c r="A52" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="30"/>
-    </row>
-    <row r="53" spans="1:4" s="33" customFormat="1">
-      <c r="A53" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="30"/>
-    </row>
-    <row r="54" spans="1:4" s="33" customFormat="1">
-      <c r="A54" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="30"/>
-    </row>
-    <row r="55" spans="1:4" s="33" customFormat="1">
-      <c r="A55" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="B55" s="31" t="s">
+      <c r="B56" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C56" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="30"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="D56" s="29"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="29" t="s">
-        <v>265</v>
+      <c r="D57" s="28" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4022,26 +4200,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="91"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="92"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="92" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11400" windowWidth="38400" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="38400" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="PRTC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="338">
   <si>
     <t>COMD</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1331,6 +1331,86 @@
   </si>
   <si>
     <t>최고 갯수(7)개의 세트를 이미 가지고 있음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTFC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTFC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTIFICATION</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GETL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET LIST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATHR,CTTS,TIME * ...</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTTS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTANTS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet\, consequetuer.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 되어있지 않음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림을 찾을 수 없음.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버로부터 받은 알림을 확인합니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(한번 받은 알림은 받지 않습니다.)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2022,9 +2102,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2249,6 +2326,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2534,21 +2614,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
+    <col min="1" max="1" width="9" style="19"/>
     <col min="2" max="2" width="30" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="10"/>
     <col min="5" max="5" width="41.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.75" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="48" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" style="11" customWidth="1"/>
     <col min="9" max="10" width="9" style="11"/>
     <col min="11" max="11" width="9" style="12"/>
@@ -2557,187 +2637,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" customFormat="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:13" customFormat="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="87" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="69" t="s">
         <v>290</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:13" customFormat="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="71"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="70"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="72"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="71"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:13" s="41" customFormat="1">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:13" s="40" customFormat="1">
+      <c r="A5" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="I5" s="41" t="s">
+      <c r="G5" s="46"/>
+      <c r="I5" s="40" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="57" customFormat="1">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:13" s="56" customFormat="1">
+      <c r="A6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="K6" s="58"/>
-      <c r="M6" s="69"/>
-    </row>
-    <row r="7" spans="1:13" s="57" customFormat="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52" t="s">
+      <c r="G6" s="67"/>
+      <c r="K6" s="57"/>
+      <c r="M6" s="68"/>
+    </row>
+    <row r="7" spans="1:13" s="56" customFormat="1">
+      <c r="A7" s="50"/>
+      <c r="B7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="K7" s="58"/>
-    </row>
-    <row r="8" spans="1:13" s="57" customFormat="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="54" t="s">
+      <c r="G7" s="55"/>
+      <c r="K7" s="57"/>
+    </row>
+    <row r="8" spans="1:13" s="56" customFormat="1">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="K8" s="58"/>
-    </row>
-    <row r="9" spans="1:13" s="57" customFormat="1">
-      <c r="A9" s="51" t="s">
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="K8" s="57"/>
+    </row>
+    <row r="9" spans="1:13" s="56" customFormat="1">
+      <c r="A9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="K9" s="58"/>
-    </row>
-    <row r="10" spans="1:13" s="63" customFormat="1">
-      <c r="A10" s="59" t="s">
+      <c r="G9" s="55"/>
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" spans="1:13" s="62" customFormat="1">
+      <c r="A10" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="K10" s="65"/>
+      <c r="G10" s="63"/>
+      <c r="K10" s="64"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41" t="s">
         <v>206</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -2746,12 +2826,12 @@
       <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="44" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2766,7 +2846,7 @@
       <c r="E12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="44" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2779,7 +2859,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>208</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2787,7 +2867,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="17" customFormat="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="13"/>
@@ -2803,11 +2883,11 @@
       <c r="F15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="49"/>
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2822,7 +2902,7 @@
       <c r="E16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="44" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2851,10 +2931,10 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>282</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -2863,7 +2943,7 @@
       <c r="E20" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="44" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2884,7 +2964,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>122</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2899,7 +2979,7 @@
       <c r="E23" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2944,10 +3024,10 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="42" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -2956,7 +3036,7 @@
       <c r="E29" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="44" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2985,7 +3065,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="19" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -3000,7 +3080,7 @@
       <c r="E33" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="44" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3029,7 +3109,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>147</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -3044,7 +3124,7 @@
       <c r="E37" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="44" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3073,7 +3153,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -3088,7 +3168,7 @@
       <c r="E41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="44" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3125,7 +3205,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="19" t="s">
         <v>310</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -3140,7 +3220,7 @@
       <c r="E46" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="F46" s="45" t="s">
+      <c r="F46" s="44" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3153,7 +3233,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="19" t="s">
         <v>193</v>
       </c>
       <c r="C48" s="16" t="s">
@@ -3165,7 +3245,7 @@
       <c r="E48" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="45" t="s">
+      <c r="F48" s="44" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3181,7 +3261,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" s="17" customFormat="1">
-      <c r="A50" s="21"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
         <v>199</v>
@@ -3192,114 +3272,161 @@
       <c r="E50" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G50" s="50"/>
+      <c r="G50" s="49"/>
       <c r="K50" s="18"/>
     </row>
-    <row r="51" spans="1:11" s="38" customFormat="1">
-      <c r="A51" s="34" t="s">
+    <row r="51" spans="1:11" s="37" customFormat="1">
+      <c r="A51" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="G51" s="48"/>
-      <c r="K51" s="39"/>
-    </row>
-    <row r="52" spans="1:11" s="38" customFormat="1">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="37" t="s">
+      <c r="G51" s="47"/>
+      <c r="K51" s="38"/>
+    </row>
+    <row r="52" spans="1:11" s="37" customFormat="1">
+      <c r="A52" s="33"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="48"/>
-      <c r="K52" s="39"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="20" t="s">
+      <c r="F52" s="43"/>
+      <c r="G52" s="47"/>
+      <c r="K52" s="38"/>
+    </row>
+    <row r="53" spans="1:11" s="37" customFormat="1">
+      <c r="A53" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="94" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="D54" s="10" t="s">
+      <c r="G53" s="47"/>
+      <c r="K53" s="38"/>
+    </row>
+    <row r="54" spans="1:11" s="37" customFormat="1">
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="F54" s="19"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="B55" s="8" t="s">
+      <c r="F54" s="94"/>
+      <c r="G54" s="47"/>
+      <c r="K54" s="38"/>
+    </row>
+    <row r="55" spans="1:11" s="37" customFormat="1">
+      <c r="A55" s="33"/>
+      <c r="B55" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="94" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="D56" s="10" t="s">
+      <c r="G55" s="47"/>
+      <c r="K55" s="38"/>
+    </row>
+    <row r="56" spans="1:11" s="37" customFormat="1">
+      <c r="A56" s="33"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="34" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" s="57" customFormat="1">
-      <c r="A57" s="51" t="s">
+      <c r="F56" s="43"/>
+      <c r="G56" s="47"/>
+      <c r="K56" s="38"/>
+    </row>
+    <row r="57" spans="1:11" s="56" customFormat="1">
+      <c r="A57" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="53" t="s">
+      <c r="B57" s="51"/>
+      <c r="C57" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="D57" s="54"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="55" t="s">
+      <c r="D57" s="53"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="K57" s="58"/>
+      <c r="G57" s="55"/>
+      <c r="K57" s="57"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="D59" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>337</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3321,25 +3448,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="25"/>
+    <col min="1" max="1" width="9" style="24"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>214</v>
       </c>
       <c r="B1" t="s">
@@ -3348,7 +3475,7 @@
       <c r="C1" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>234</v>
       </c>
       <c r="E1" t="s">
@@ -3362,7 +3489,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>215</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3371,7 +3498,7 @@
       <c r="C2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>233</v>
       </c>
       <c r="F2" t="s">
@@ -3381,23 +3508,23 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="24" customFormat="1">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:7" s="23" customFormat="1">
+      <c r="A3" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="29" t="str">
+      <c r="D3" s="28" t="str">
         <f>B3</f>
         <v>BYST</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>217</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3406,7 +3533,7 @@
       <c r="C4" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>263</v>
       </c>
       <c r="F4">
@@ -3417,7 +3544,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>217</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3426,7 +3553,7 @@
       <c r="C5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>251</v>
       </c>
       <c r="F5">
@@ -3436,23 +3563,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="24" customFormat="1">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:7" s="23" customFormat="1">
+      <c r="A6" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="29" t="str">
+      <c r="D6" s="28" t="str">
         <f>B6</f>
         <v>CHAT</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>225</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3461,7 +3588,7 @@
       <c r="C7" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>263</v>
       </c>
       <c r="F7">
@@ -3471,710 +3598,756 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="24" customFormat="1">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:7" s="23" customFormat="1">
+      <c r="A8" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" s="24" customFormat="1">
-      <c r="A9" s="25" t="s">
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" s="23" customFormat="1">
+      <c r="A9" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="29" t="str">
+      <c r="D9" s="28" t="str">
         <f>B9</f>
         <v>CRMR</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="24" customFormat="1">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:7" s="23" customFormat="1">
+      <c r="A10" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" s="24" customFormat="1">
-      <c r="A11" s="25" t="s">
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" s="23" customFormat="1">
+      <c r="A11" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="F11" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="23" customFormat="1">
+      <c r="A12" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" s="24" customFormat="1">
-      <c r="A12" s="25" t="s">
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" s="23" customFormat="1">
+      <c r="A13" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" s="24" customFormat="1">
-      <c r="A13" s="25" t="s">
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" s="23" customFormat="1">
+      <c r="A14" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" s="24" customFormat="1">
-      <c r="A14" s="25" t="s">
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" s="23" customFormat="1">
+      <c r="A15" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" s="24" customFormat="1">
-      <c r="A15" s="25" t="s">
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" s="23" customFormat="1">
+      <c r="A16" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" s="24" customFormat="1">
-      <c r="A16" s="25" t="s">
+      <c r="D16" s="28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="23" customFormat="1">
+      <c r="A17" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="23" customFormat="1">
+      <c r="A18" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="29" t="str">
-        <f>B16</f>
+      <c r="D18" s="28" t="str">
+        <f>B18</f>
         <v>GMLT</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="24" customFormat="1">
-      <c r="A17" s="25" t="s">
+    <row r="19" spans="1:7" s="23" customFormat="1">
+      <c r="A19" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" s="25" customFormat="1">
-      <c r="A18" s="25" t="s">
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" s="24" customFormat="1">
+      <c r="A20" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="25" t="s">
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F21" t="s">
         <v>235</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G21" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="24" customFormat="1">
-      <c r="A20" s="25" t="s">
+    <row r="22" spans="1:7" s="23" customFormat="1">
+      <c r="A22" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="29" t="str">
-        <f>B20</f>
+      <c r="D22" s="28" t="str">
+        <f>B22</f>
         <v>JOIN</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="24" customFormat="1">
-      <c r="A21" s="25" t="s">
+    <row r="23" spans="1:7" s="23" customFormat="1">
+      <c r="A23" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="29" t="str">
-        <f>B21</f>
+      <c r="D23" s="28" t="str">
+        <f>B23</f>
         <v>LEVE</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="24" customFormat="1">
-      <c r="A22" s="25" t="s">
+    <row r="24" spans="1:7" s="23" customFormat="1">
+      <c r="A24" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="29" t="str">
-        <f>B22</f>
+      <c r="D24" s="28" t="str">
+        <f>B24</f>
         <v>LGIN</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="24" customFormat="1">
-      <c r="A23" s="25" t="s">
+    <row r="25" spans="1:7" s="23" customFormat="1">
+      <c r="A25" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="29" t="str">
-        <f>B23</f>
+      <c r="D25" s="28" t="str">
+        <f>B25</f>
         <v>LGOT</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="25" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F26" t="s">
         <v>241</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G26" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="25" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>7</v>
       </c>
-      <c r="G25">
+      <c r="G27">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="25" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F28" t="s">
         <v>247</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G28" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="32" customFormat="1">
-      <c r="A27" s="25" t="s">
+    <row r="29" spans="1:7" s="31" customFormat="1">
+      <c r="A29" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C29" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="1:7" s="32" customFormat="1">
-      <c r="A28" s="25" t="s">
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" s="31" customFormat="1">
+      <c r="A30" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="25" t="s">
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31" spans="1:7" s="31" customFormat="1">
+      <c r="A31" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D29" s="28" t="str">
+      <c r="D32" s="27" t="str">
         <f>D5</f>
         <v>4|6|8|10|12|14|16|18|20|22|24</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="25" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D33" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F33" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G33" s="32" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="25" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D31" s="28" t="str">
+      <c r="D34" s="27" t="str">
         <f>D5</f>
         <v>4|6|8|10|12|14|16|18|20|22|24</v>
       </c>
-      <c r="F31" s="33"/>
-    </row>
-    <row r="32" spans="1:7" s="32" customFormat="1">
-      <c r="A32" s="25" t="s">
+      <c r="F34" s="32"/>
+    </row>
+    <row r="35" spans="1:7" s="31" customFormat="1">
+      <c r="A35" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C35" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="25" t="s">
+      <c r="D35" s="28"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F36" t="s">
         <v>260</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G36" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="24" customFormat="1">
-      <c r="A34" s="25" t="s">
+    <row r="37" spans="1:7" s="23" customFormat="1">
+      <c r="A37" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="29" t="str">
-        <f>B34</f>
+      <c r="D37" s="28" t="str">
+        <f>B37</f>
         <v>PING</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="25" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="F35">
+      <c r="F38">
         <v>1</v>
       </c>
-      <c r="G35">
+      <c r="G38">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="25" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="28" t="str">
-        <f>D19</f>
+      <c r="D39" s="27" t="str">
+        <f>D21</f>
         <v>[a-zA-Z\d_]+</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="32" customFormat="1">
-      <c r="A37" s="25" t="s">
+    <row r="40" spans="1:7" s="31" customFormat="1">
+      <c r="A40" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C40" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="1:7" s="32" customFormat="1">
-      <c r="A38" s="25" t="s">
+      <c r="D40" s="28"/>
+    </row>
+    <row r="41" spans="1:7" s="31" customFormat="1">
+      <c r="A41" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B41" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C41" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="1:7" s="32" customFormat="1">
-      <c r="A39" s="25" t="s">
+      <c r="D41" s="28"/>
+    </row>
+    <row r="42" spans="1:7" s="31" customFormat="1">
+      <c r="A42" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C42" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="29"/>
-    </row>
-    <row r="40" spans="1:7" s="24" customFormat="1">
-      <c r="A40" s="25" t="s">
+      <c r="D42" s="28"/>
+    </row>
+    <row r="43" spans="1:7" s="23" customFormat="1">
+      <c r="A43" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B43" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="D40" s="29"/>
-    </row>
-    <row r="41" spans="1:7" s="24" customFormat="1">
-      <c r="A41" s="25" t="s">
+      <c r="D43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" s="23" customFormat="1">
+      <c r="A44" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B44" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C44" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="25" t="s">
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D45" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="F42">
+      <c r="F45">
         <v>1</v>
       </c>
-      <c r="G42">
+      <c r="G45">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="25" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D46" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="F43">
+      <c r="F46">
         <v>2</v>
       </c>
-      <c r="G43">
+      <c r="G46">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="32" customFormat="1">
-      <c r="A44" s="25" t="s">
+    <row r="47" spans="1:7" s="31" customFormat="1">
+      <c r="A47" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B47" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C47" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="29"/>
-    </row>
-    <row r="45" spans="1:7" s="24" customFormat="1">
-      <c r="A45" s="25" t="s">
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="1:7" s="23" customFormat="1">
+      <c r="A48" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="29"/>
-    </row>
-    <row r="46" spans="1:7" s="32" customFormat="1">
-      <c r="A46" s="25" t="s">
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:4" s="31" customFormat="1">
+      <c r="A49" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B49" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C49" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="29"/>
-    </row>
-    <row r="47" spans="1:7" s="32" customFormat="1">
-      <c r="A47" s="25" t="s">
+      <c r="D49" s="28"/>
+    </row>
+    <row r="50" spans="1:4" s="31" customFormat="1">
+      <c r="A50" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B50" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C50" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="D47" s="29"/>
-    </row>
-    <row r="48" spans="1:7" s="24" customFormat="1">
-      <c r="A48" s="25" t="s">
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" spans="1:4" s="23" customFormat="1">
+      <c r="A51" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B51" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C51" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="29"/>
-    </row>
-    <row r="49" spans="1:4" s="24" customFormat="1">
-      <c r="A49" s="25" t="s">
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="1:4" s="23" customFormat="1">
+      <c r="A52" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B52" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C52" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="29"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="25" t="s">
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D53" s="27" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="24" customFormat="1">
-      <c r="A51" s="25" t="s">
+    <row r="54" spans="1:4" s="23" customFormat="1">
+      <c r="A54" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B54" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C54" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="29"/>
-    </row>
-    <row r="52" spans="1:4" s="24" customFormat="1">
-      <c r="A52" s="25" t="s">
+      <c r="D54" s="28"/>
+    </row>
+    <row r="55" spans="1:4" s="23" customFormat="1">
+      <c r="A55" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B55" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C55" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="29"/>
-    </row>
-    <row r="53" spans="1:4" s="24" customFormat="1">
-      <c r="A53" s="25" t="s">
+      <c r="D55" s="28"/>
+    </row>
+    <row r="56" spans="1:4" s="23" customFormat="1">
+      <c r="A56" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B56" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C56" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="29"/>
-    </row>
-    <row r="54" spans="1:4" s="32" customFormat="1">
-      <c r="A54" s="25" t="s">
+      <c r="D56" s="28"/>
+    </row>
+    <row r="57" spans="1:4" s="31" customFormat="1">
+      <c r="A57" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B57" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C57" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="29"/>
-    </row>
-    <row r="55" spans="1:4" s="32" customFormat="1">
-      <c r="A55" s="25" t="s">
+      <c r="D57" s="28"/>
+    </row>
+    <row r="58" spans="1:4" s="31" customFormat="1">
+      <c r="A58" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B58" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C58" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="29"/>
-    </row>
-    <row r="56" spans="1:4" s="32" customFormat="1">
-      <c r="A56" s="25" t="s">
+      <c r="D58" s="28"/>
+    </row>
+    <row r="59" spans="1:4" s="31" customFormat="1">
+      <c r="A59" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B59" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C59" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="29"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="25" t="s">
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D60" s="27" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4200,26 +4373,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="90"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="92"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="91"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="91" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12000" windowWidth="38400" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="12600" windowWidth="38400" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="PRTC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="354">
   <si>
     <t>COMD</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1411,6 +1411,70 @@
   </si>
   <si>
     <t>(한번 받은 알림은 받지 않습니다.)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 되어있지 않음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신에서 사용하는 클라이언트의 이름을 받아옵니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 되어있지 않음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신에서 사용하는 클라이언트의 이름을 바꿉니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2252,6 +2316,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2326,9 +2393,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2614,10 +2678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2637,65 +2701,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" customFormat="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:13" customFormat="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="86" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="70" t="s">
         <v>290</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:13" customFormat="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="70"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="71"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="71"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="72"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:13" s="40" customFormat="1">
@@ -3327,7 +3391,7 @@
       <c r="E53" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="F53" s="94" t="s">
+      <c r="F53" s="69" t="s">
         <v>301</v>
       </c>
       <c r="G53" s="47"/>
@@ -3343,7 +3407,7 @@
       <c r="E54" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="F54" s="94"/>
+      <c r="F54" s="69"/>
       <c r="G54" s="47"/>
       <c r="K54" s="38"/>
     </row>
@@ -3361,7 +3425,7 @@
       <c r="E55" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="F55" s="94" t="s">
+      <c r="F55" s="69" t="s">
         <v>306</v>
       </c>
       <c r="G55" s="47"/>
@@ -3426,6 +3490,54 @@
       </c>
       <c r="F59" s="44" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F60" s="44" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="B61" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="B62" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F62" s="44" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3448,10 +3560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A31" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4129,225 +4241,237 @@
     </row>
     <row r="44" spans="1:7" s="23" customFormat="1">
       <c r="A44" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="23" customFormat="1">
+      <c r="A45" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B45" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C45" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="D44" s="28"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>12</v>
-      </c>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="24" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>263</v>
       </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="F47">
         <v>2</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="31" customFormat="1">
-      <c r="A47" s="24" t="s">
+    <row r="48" spans="1:7" s="31" customFormat="1">
+      <c r="A48" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B48" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C48" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="28"/>
-    </row>
-    <row r="48" spans="1:7" s="23" customFormat="1">
-      <c r="A48" s="24" t="s">
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:4" s="23" customFormat="1">
+      <c r="A49" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B49" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C49" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="D48" s="28"/>
-    </row>
-    <row r="49" spans="1:4" s="31" customFormat="1">
-      <c r="A49" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>97</v>
       </c>
       <c r="D49" s="28"/>
     </row>
     <row r="50" spans="1:4" s="31" customFormat="1">
       <c r="A50" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" spans="1:4" s="31" customFormat="1">
+      <c r="A51" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B51" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C51" s="30" t="s">
         <v>292</v>
-      </c>
-      <c r="D50" s="28"/>
-    </row>
-    <row r="51" spans="1:4" s="23" customFormat="1">
-      <c r="A51" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>108</v>
       </c>
       <c r="D51" s="28"/>
     </row>
     <row r="52" spans="1:4" s="23" customFormat="1">
       <c r="A52" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:4" s="23" customFormat="1">
+      <c r="A53" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B53" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C53" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="28"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="24" t="s">
+      <c r="D53" s="28"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D54" s="27" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" s="23" customFormat="1">
-      <c r="A54" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="1:4" s="23" customFormat="1">
       <c r="A55" s="24" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D55" s="28"/>
     </row>
     <row r="56" spans="1:4" s="23" customFormat="1">
       <c r="A56" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="28"/>
+    </row>
+    <row r="57" spans="1:4" s="23" customFormat="1">
+      <c r="A57" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B57" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C57" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="D56" s="28"/>
-    </row>
-    <row r="57" spans="1:4" s="31" customFormat="1">
-      <c r="A57" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>99</v>
       </c>
       <c r="D57" s="28"/>
     </row>
     <row r="58" spans="1:4" s="31" customFormat="1">
       <c r="A58" s="24" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D58" s="28"/>
     </row>
     <row r="59" spans="1:4" s="31" customFormat="1">
       <c r="A59" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" spans="1:4" s="31" customFormat="1">
+      <c r="A60" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B60" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C60" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D59" s="28"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="24" t="s">
+      <c r="D60" s="28"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D61" s="27" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4373,26 +4497,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="90"/>
+      <c r="B1" s="91"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="91"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="92"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="92" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" thickBot="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12600" windowWidth="38400" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="13200" windowWidth="38400" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="PRTC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="377">
   <si>
     <t>COMD</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1183,59 +1183,170 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>CARD * ...</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>PASS</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>CARC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 리스폰스는 커맨드 이름을 포함함</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXIT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXIT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료합니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSCR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMOT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME OUT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRIEND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 되어있지 않음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLYR를 친구 목록에 추가합니다. PLYR에게 알림이 갑니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLYR TRUE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLYR FLSE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLYR를 친구 목록에서 제외합니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 추가되어 있음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가되어 있지 않음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLYR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>PASS</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CARD * ...</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUCC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 리스폰스는 커맨드 이름을 포함함</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXIT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXIT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료합니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSCR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMOT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME OUT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림</t>
+    <t>NCTG</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 접속해있지 않음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 PLYR를 초대합니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 오프라인 상태임</t>
+  </si>
+  <si>
+    <t>최고 갯수(7)개의 세트를 이미 가지고 있음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTFC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTFC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTIFICATION</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GETL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET LIST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATHR,CTTS,TIME * ...</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTTS</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1243,7 +1354,83 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FRND</t>
+    <t>문자열</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTANTS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet\, consequetuer.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 되어있지 않음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림을 찾을 수 없음.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버로부터 받은 알림을 확인합니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(한번 받은 알림은 받지 않습니다.)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 되어있지 않음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신에서 사용하는 클라이언트의 이름을 받아옵니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 되어있지 않음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신에서 사용하는 클라이언트의 이름을 바꿉니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REST</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1251,11 +1438,31 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FRIEND</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUCC</t>
+    <t>REST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUSR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET USER LIST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUSR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUSR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRMT</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1263,23 +1470,95 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 되어있지 않음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLYR를 친구 목록에 추가합니다. PLYR에게 알림이 갑니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLYR TRUE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLYR FLSE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUCC</t>
+    <t>유저가 없음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRMT로 유저 목록을 검색합니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신에서 사용하는 클라이언트의 이름을 리셋합니다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERRR 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름이 리셋되어있음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCC 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCC 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCC 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCC 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET NAME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저를 찾을 수 없음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER USER * ...</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITFC로 NAME을 받아옵니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER NAME</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1287,194 +1566,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>PLYR를 친구 목록에서 제외합니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERRR 1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미 추가되어 있음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가되어 있지 않음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLYR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCTG</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임에 접속해있지 않음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임에 PLYR를 초대합니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 오프라인 상태임</t>
-  </si>
-  <si>
-    <t>최고 갯수(7)개의 세트를 이미 가지고 있음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTFC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTFC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTIFICATION</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명령어</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GETL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET LIST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명령어</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATHR,CTTS,TIME * ...</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTTS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRND</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTANTS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet\, consequetuer.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERRR 0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 되어있지 않음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERRR 1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림을 찾을 수 없음.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버로부터 받은 알림을 확인합니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(한번 받은 알림은 받지 않습니다.)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERRR 0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 되어있지 않음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>통신에서 사용하는 클라이언트의 이름을 받아옵니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUCC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERRR 0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 되어있지 않음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>통신에서 사용하는 클라이언트의 이름을 바꿉니다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>REST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>REST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>명령어</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>REST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUCC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERRR 0</t>
+    <t>이름이 리셋되어있음</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1482,7 +1574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2678,13 +2770,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="19"/>
     <col min="2" max="2" width="30" style="8" bestFit="1" customWidth="1"/>
@@ -2700,7 +2792,7 @@
     <col min="13" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" customFormat="1">
+    <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>11</v>
       </c>
@@ -2712,7 +2804,7 @@
       <c r="G1" s="75"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:13" customFormat="1">
+    <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
         <v>7</v>
       </c>
@@ -2726,11 +2818,11 @@
         <v>1</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:13" customFormat="1">
+    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +2840,7 @@
       <c r="G3" s="71"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="17.25" thickBot="1">
+    <row r="4" spans="1:13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="84"/>
       <c r="B4" s="86"/>
       <c r="C4" s="82"/>
@@ -2762,7 +2854,7 @@
       <c r="G4" s="72"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:13" s="40" customFormat="1">
+    <row r="5" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>167</v>
       </c>
@@ -2777,10 +2869,10 @@
       </c>
       <c r="G5" s="46"/>
       <c r="I5" s="40" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="56" customFormat="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>2</v>
       </c>
@@ -2801,13 +2893,13 @@
       <c r="K6" s="57"/>
       <c r="M6" s="68"/>
     </row>
-    <row r="7" spans="1:13" s="56" customFormat="1">
+    <row r="7" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50"/>
       <c r="B7" s="51" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>279</v>
+        <v>364</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>112</v>
@@ -2821,7 +2913,7 @@
       <c r="G7" s="55"/>
       <c r="K7" s="57"/>
     </row>
-    <row r="8" spans="1:13" s="56" customFormat="1">
+    <row r="8" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -2835,7 +2927,7 @@
       <c r="G8" s="55"/>
       <c r="K8" s="57"/>
     </row>
-    <row r="9" spans="1:13" s="56" customFormat="1">
+    <row r="9" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
         <v>17</v>
       </c>
@@ -2843,7 +2935,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>13</v>
@@ -2857,13 +2949,13 @@
       <c r="G9" s="55"/>
       <c r="K9" s="57"/>
     </row>
-    <row r="10" spans="1:13" s="62" customFormat="1">
+    <row r="10" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="59"/>
       <c r="C10" s="60" t="s">
-        <v>280</v>
+        <v>363</v>
       </c>
       <c r="D10" s="61" t="s">
         <v>30</v>
@@ -2877,7 +2969,7 @@
       <c r="G10" s="63"/>
       <c r="K10" s="64"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
@@ -2894,7 +2986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>36</v>
       </c>
@@ -2914,7 +3006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D13" s="10" t="s">
         <v>39</v>
       </c>
@@ -2922,7 +3014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>208</v>
       </c>
@@ -2930,13 +3022,13 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="17" customFormat="1">
+    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>43</v>
@@ -2950,7 +3042,7 @@
       <c r="G15" s="49"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>105</v>
       </c>
@@ -2970,7 +3062,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" s="10" t="s">
         <v>171</v>
       </c>
@@ -2978,7 +3070,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
@@ -2986,7 +3078,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D19" s="10" t="s">
         <v>112</v>
       </c>
@@ -2994,12 +3086,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>116</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>170</v>
@@ -3011,7 +3103,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" s="10" t="s">
         <v>171</v>
       </c>
@@ -3019,7 +3111,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" s="10" t="s">
         <v>172</v>
       </c>
@@ -3027,7 +3119,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>122</v>
       </c>
@@ -3035,7 +3127,7 @@
         <v>125</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>170</v>
@@ -3047,7 +3139,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" s="10" t="s">
         <v>171</v>
       </c>
@@ -3055,7 +3147,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" s="10" t="s">
         <v>173</v>
       </c>
@@ -3063,7 +3155,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" s="10" t="s">
         <v>174</v>
       </c>
@@ -3071,7 +3163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" s="10" t="s">
         <v>175</v>
       </c>
@@ -3079,7 +3171,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="10" t="s">
         <v>176</v>
       </c>
@@ -3087,7 +3179,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>134</v>
       </c>
@@ -3104,7 +3196,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" s="10" t="s">
         <v>171</v>
       </c>
@@ -3112,7 +3204,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" s="10" t="s">
         <v>177</v>
       </c>
@@ -3120,15 +3212,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>143</v>
       </c>
@@ -3148,7 +3240,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D34" s="10" t="s">
         <v>171</v>
       </c>
@@ -3156,7 +3248,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D35" s="10" t="s">
         <v>13</v>
       </c>
@@ -3164,7 +3256,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D36" s="10" t="s">
         <v>112</v>
       </c>
@@ -3172,7 +3264,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>147</v>
       </c>
@@ -3180,7 +3272,7 @@
         <v>150</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>170</v>
@@ -3192,7 +3284,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D38" s="10" t="s">
         <v>171</v>
       </c>
@@ -3200,7 +3292,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D39" s="10" t="s">
         <v>13</v>
       </c>
@@ -3208,7 +3300,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D40" s="10" t="s">
         <v>179</v>
       </c>
@@ -3216,7 +3308,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>153</v>
       </c>
@@ -3224,7 +3316,7 @@
         <v>150</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>170</v>
@@ -3236,7 +3328,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" s="10" t="s">
         <v>171</v>
       </c>
@@ -3244,7 +3336,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D43" s="10" t="s">
         <v>180</v>
       </c>
@@ -3252,7 +3344,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D44" s="10" t="s">
         <v>181</v>
       </c>
@@ -3260,7 +3352,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D45" s="10" t="s">
         <v>119</v>
       </c>
@@ -3268,35 +3360,35 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F46" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="B46" s="8" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D47" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F46" s="44" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="D47" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>193</v>
       </c>
@@ -3313,7 +3405,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C49" s="8" t="s">
         <v>198</v>
       </c>
@@ -3324,7 +3416,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="17" customFormat="1">
+    <row r="50" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
@@ -3339,7 +3431,7 @@
       <c r="G50" s="49"/>
       <c r="K50" s="18"/>
     </row>
-    <row r="51" spans="1:11" s="37" customFormat="1">
+    <row r="51" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
         <v>186</v>
       </c>
@@ -3347,7 +3439,7 @@
         <v>187</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>9</v>
+        <v>362</v>
       </c>
       <c r="D51" s="36" t="s">
         <v>190</v>
@@ -3361,7 +3453,7 @@
       <c r="G51" s="47"/>
       <c r="K51" s="38"/>
     </row>
-    <row r="52" spans="1:11" s="37" customFormat="1">
+    <row r="52" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -3369,176 +3461,240 @@
         <v>174</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="47"/>
       <c r="K52" s="38"/>
     </row>
-    <row r="53" spans="1:11" s="37" customFormat="1">
+    <row r="53" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C53" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="F53" s="69" t="s">
         <v>298</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="F53" s="69" t="s">
-        <v>301</v>
       </c>
       <c r="G53" s="47"/>
       <c r="K53" s="38"/>
     </row>
-    <row r="54" spans="1:11" s="37" customFormat="1">
+    <row r="54" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
       <c r="D54" s="36" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F54" s="69"/>
       <c r="G54" s="47"/>
       <c r="K54" s="38"/>
     </row>
-    <row r="55" spans="1:11" s="37" customFormat="1">
+    <row r="55" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="33"/>
       <c r="B55" s="34" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C55" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="E55" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="D55" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>300</v>
-      </c>
       <c r="F55" s="69" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G55" s="47"/>
       <c r="K55" s="38"/>
     </row>
-    <row r="56" spans="1:11" s="37" customFormat="1">
-      <c r="A56" s="33"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="47"/>
-      <c r="K56" s="38"/>
-    </row>
-    <row r="57" spans="1:11" s="56" customFormat="1">
-      <c r="A57" s="50" t="s">
+    <row r="56" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="B56" s="51"/>
+      <c r="C56" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="53"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="D57" s="53"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="G57" s="55"/>
-      <c r="K57" s="57"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>325</v>
-      </c>
+      <c r="G56" s="55"/>
+      <c r="K56" s="57"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D58" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F58" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="E58" s="8" t="s">
+    </row>
+    <row r="59" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="B59" s="34"/>
+      <c r="C59" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="E59" s="34" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="D59" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="F59" s="44" t="s">
+      <c r="F59" s="43" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="19" t="s">
+      <c r="G59" s="47"/>
+      <c r="K59" s="38"/>
+    </row>
+    <row r="60" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="33"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="F60" s="43"/>
+      <c r="G60" s="47"/>
+      <c r="K60" s="38"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B62" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C62" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="F62" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="B61" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="C61" s="8" t="s">
+    </row>
+    <row r="63" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="E63" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="F63" s="43" t="s">
         <v>353</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="B62" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="F62" s="44" t="s">
-        <v>347</v>
-      </c>
+      <c r="G63" s="47"/>
+      <c r="K63" s="38"/>
+    </row>
+    <row r="64" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="G64" s="47"/>
+      <c r="K64" s="38"/>
+    </row>
+    <row r="65" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="33"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="F65" s="43"/>
+      <c r="G65" s="47"/>
+      <c r="K65" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3560,13 +3716,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="24"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
@@ -3577,7 +3733,7 @@
     <col min="7" max="7" width="53.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>214</v>
       </c>
@@ -3600,7 +3756,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>215</v>
       </c>
@@ -3620,7 +3776,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="23" customFormat="1">
+    <row r="3" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>216</v>
       </c>
@@ -3635,7 +3791,7 @@
         <v>BYST</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>217</v>
       </c>
@@ -3655,7 +3811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>217</v>
       </c>
@@ -3675,7 +3831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1">
+    <row r="6" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>223</v>
       </c>
@@ -3690,7 +3846,7 @@
         <v>CHAT</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>225</v>
       </c>
@@ -3710,7 +3866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="23" customFormat="1">
+    <row r="8" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>214</v>
       </c>
@@ -3722,7 +3878,7 @@
       </c>
       <c r="D8" s="28"/>
     </row>
-    <row r="9" spans="1:7" s="23" customFormat="1">
+    <row r="9" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>223</v>
       </c>
@@ -3737,7 +3893,7 @@
         <v>CRMR</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="23" customFormat="1">
+    <row r="10" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>214</v>
       </c>
@@ -3749,25 +3905,25 @@
       </c>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:7" s="23" customFormat="1">
+    <row r="11" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D11" s="28"/>
       <c r="F11" s="23" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="23" customFormat="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>226</v>
       </c>
@@ -3779,7 +3935,7 @@
       </c>
       <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="1:7" s="23" customFormat="1">
+    <row r="13" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>214</v>
       </c>
@@ -3791,7 +3947,7 @@
       </c>
       <c r="D13" s="28"/>
     </row>
-    <row r="14" spans="1:7" s="23" customFormat="1">
+    <row r="14" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>226</v>
       </c>
@@ -3803,7 +3959,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:7" s="23" customFormat="1">
+    <row r="15" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>214</v>
       </c>
@@ -3815,35 +3971,35 @@
       </c>
       <c r="D15" s="28"/>
     </row>
-    <row r="16" spans="1:7" s="23" customFormat="1">
+    <row r="16" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>297</v>
-      </c>
       <c r="D16" s="28" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="23" customFormat="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="23" customFormat="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>227</v>
       </c>
@@ -3858,620 +4014,648 @@
         <v>GMLT</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1">
+    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B20" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="1:7" s="24" customFormat="1">
-      <c r="A20" s="24" t="s">
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B22" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C22" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="24" t="s">
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D23" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>235</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G23" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1">
-      <c r="A22" s="24" t="s">
+    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B24" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C24" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="28" t="str">
-        <f>B22</f>
-        <v>JOIN</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="23" customFormat="1">
-      <c r="A23" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="28" t="str">
-        <f>B23</f>
-        <v>LEVE</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="23" customFormat="1">
-      <c r="A24" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="D24" s="28" t="str">
         <f>B24</f>
-        <v>LGIN</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="23" customFormat="1">
+        <v>JOIN</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" s="28" t="str">
         <f>B25</f>
+        <v>LEVE</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="28" t="str">
+        <f>B26</f>
+        <v>LGIN</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="28" t="str">
+        <f>B27</f>
         <v>LGOT</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="24" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D28" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F28" t="s">
         <v>241</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G28" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="24" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D29" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>7</v>
       </c>
-      <c r="G27">
+      <c r="G29">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="24" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D30" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F30" t="s">
         <v>247</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G30" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="31" customFormat="1">
-      <c r="A29" s="24" t="s">
+    <row r="31" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B31" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C31" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="1:7" s="31" customFormat="1">
-      <c r="A30" s="24" t="s">
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B32" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C32" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="1:7" s="31" customFormat="1">
-      <c r="A31" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D32" s="27" t="str">
-        <f>D5</f>
-        <v>4|6|8|10|12|14|16|18|20|22|24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="D32" s="28"/>
+    </row>
+    <row r="33" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>316</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>217</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D34" s="27" t="str">
         <f>D5</f>
         <v>4|6|8|10|12|14|16|18|20|22|24</v>
       </c>
-      <c r="F34" s="32"/>
-    </row>
-    <row r="35" spans="1:7" s="31" customFormat="1">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="27" t="str">
+        <f>D5</f>
+        <v>4|6|8|10|12|14|16|18|20|22|24</v>
+      </c>
+      <c r="F36" s="32"/>
+    </row>
+    <row r="37" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B37" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C37" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="28"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="24" t="s">
+      <c r="D37" s="28"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D38" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F38" t="s">
         <v>260</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G38" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="23" customFormat="1">
-      <c r="A37" s="24" t="s">
+    <row r="39" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B39" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C39" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D37" s="28" t="str">
-        <f>B37</f>
+      <c r="D39" s="28" t="str">
+        <f>B39</f>
         <v>PING</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="24" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D40" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <v>1</v>
       </c>
-      <c r="G38">
+      <c r="G40">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="24" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="27" t="str">
-        <f>D21</f>
+      <c r="D41" s="27" t="str">
+        <f>D23</f>
         <v>[a-zA-Z\d_]+</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="31" customFormat="1">
-      <c r="A40" s="24" t="s">
+    <row r="42" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B42" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C42" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="28"/>
-    </row>
-    <row r="41" spans="1:7" s="31" customFormat="1">
-      <c r="A41" s="24" t="s">
+      <c r="D42" s="28"/>
+    </row>
+    <row r="43" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B43" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C43" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="28"/>
-    </row>
-    <row r="42" spans="1:7" s="31" customFormat="1">
-      <c r="A42" s="24" t="s">
+      <c r="D43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B44" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C44" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="28"/>
-    </row>
-    <row r="43" spans="1:7" s="23" customFormat="1">
-      <c r="A43" s="24" t="s">
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B45" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C45" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="28"/>
-    </row>
-    <row r="44" spans="1:7" s="23" customFormat="1">
-      <c r="A44" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="28" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="23" customFormat="1">
-      <c r="A45" s="24" t="s">
+      <c r="D45" s="28"/>
+    </row>
+    <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B47" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C47" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="D45" s="28"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="24" t="s">
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D48" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="F46">
+      <c r="F48">
         <v>1</v>
       </c>
-      <c r="G46">
+      <c r="G48">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="24" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D49" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="F47">
+      <c r="F49">
         <v>2</v>
       </c>
-      <c r="G47">
+      <c r="G49">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="31" customFormat="1">
-      <c r="A48" s="24" t="s">
+    <row r="50" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B50" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C50" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="D48" s="28"/>
-    </row>
-    <row r="49" spans="1:4" s="23" customFormat="1">
-      <c r="A49" s="24" t="s">
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B51" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C51" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="D49" s="28"/>
-    </row>
-    <row r="50" spans="1:4" s="31" customFormat="1">
-      <c r="A50" s="24" t="s">
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B52" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C52" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="28"/>
-    </row>
-    <row r="51" spans="1:4" s="31" customFormat="1">
-      <c r="A51" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="B51" s="29" t="s">
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="C51" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D51" s="28"/>
-    </row>
-    <row r="52" spans="1:4" s="23" customFormat="1">
-      <c r="A52" s="24" t="s">
+      <c r="B53" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="28"/>
+    </row>
+    <row r="54" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B54" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C54" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="28"/>
-    </row>
-    <row r="53" spans="1:4" s="23" customFormat="1">
-      <c r="A53" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="28"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="23" customFormat="1">
+      <c r="D54" s="28"/>
+    </row>
+    <row r="55" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
         <v>223</v>
       </c>
       <c r="B55" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="28"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C57" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D55" s="28"/>
-    </row>
-    <row r="56" spans="1:4" s="23" customFormat="1">
-      <c r="A56" s="24" t="s">
+      <c r="D57" s="28"/>
+    </row>
+    <row r="58" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B58" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C58" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="28"/>
-    </row>
-    <row r="57" spans="1:4" s="23" customFormat="1">
-      <c r="A57" s="24" t="s">
+      <c r="D58" s="28"/>
+    </row>
+    <row r="59" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B59" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C59" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="28"/>
-    </row>
-    <row r="58" spans="1:4" s="31" customFormat="1">
-      <c r="A58" s="24" t="s">
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B60" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C60" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="28"/>
-    </row>
-    <row r="59" spans="1:4" s="31" customFormat="1">
-      <c r="A59" s="24" t="s">
+      <c r="D60" s="28"/>
+    </row>
+    <row r="61" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B61" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C61" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="28"/>
-    </row>
-    <row r="60" spans="1:4" s="31" customFormat="1">
-      <c r="A60" s="24" t="s">
+      <c r="D61" s="28"/>
+    </row>
+    <row r="62" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B62" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C62" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D60" s="28"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="24" t="s">
+      <c r="D62" s="28"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D63" s="27" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4490,23 +4674,23 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="90" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="91"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="89"/>
       <c r="B2" s="92"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="89" t="s">
         <v>20</v>
       </c>
@@ -4514,11 +4698,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" thickBot="1">
+    <row r="4" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="93"/>
       <c r="B4" s="94"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -4526,7 +4710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -4534,7 +4718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13200" windowWidth="38400" windowHeight="17670"/>
+    <workbookView xWindow="0" yWindow="13800" windowWidth="38400" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="PRTC" sheetId="1" r:id="rId1"/>
@@ -1574,7 +1574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2772,11 +2772,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="19"/>
     <col min="2" max="2" width="30" style="8" bestFit="1" customWidth="1"/>
@@ -2792,7 +2792,7 @@
     <col min="13" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" customFormat="1">
       <c r="A1" s="73" t="s">
         <v>11</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="G1" s="75"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" customFormat="1">
       <c r="A2" s="89" t="s">
         <v>7</v>
       </c>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" customFormat="1">
       <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="G3" s="71"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" customFormat="1" ht="17.25" thickBot="1">
       <c r="A4" s="84"/>
       <c r="B4" s="86"/>
       <c r="C4" s="82"/>
@@ -2854,7 +2854,7 @@
       <c r="G4" s="72"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="40" customFormat="1">
       <c r="A5" s="39" t="s">
         <v>167</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="56" customFormat="1">
       <c r="A6" s="50" t="s">
         <v>2</v>
       </c>
@@ -2893,7 +2893,7 @@
       <c r="K6" s="57"/>
       <c r="M6" s="68"/>
     </row>
-    <row r="7" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="56" customFormat="1">
       <c r="A7" s="50"/>
       <c r="B7" s="51" t="s">
         <v>5</v>
@@ -2913,7 +2913,7 @@
       <c r="G7" s="55"/>
       <c r="K7" s="57"/>
     </row>
-    <row r="8" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="56" customFormat="1">
       <c r="A8" s="50"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -2927,7 +2927,7 @@
       <c r="G8" s="55"/>
       <c r="K8" s="57"/>
     </row>
-    <row r="9" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="56" customFormat="1">
       <c r="A9" s="50" t="s">
         <v>17</v>
       </c>
@@ -2949,7 +2949,7 @@
       <c r="G9" s="55"/>
       <c r="K9" s="57"/>
     </row>
-    <row r="10" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="62" customFormat="1">
       <c r="A10" s="58" t="s">
         <v>29</v>
       </c>
@@ -2969,7 +2969,7 @@
       <c r="G10" s="63"/>
       <c r="K10" s="64"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="19" t="s">
         <v>36</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="D13" s="10" t="s">
         <v>39</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="19" t="s">
         <v>208</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="17" customFormat="1">
       <c r="A15" s="20" t="s">
         <v>42</v>
       </c>
@@ -3042,7 +3042,7 @@
       <c r="G15" s="49"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="19" t="s">
         <v>105</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="D17" s="10" t="s">
         <v>171</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="D19" s="10" t="s">
         <v>112</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="19" t="s">
         <v>116</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="D21" s="10" t="s">
         <v>171</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="D22" s="10" t="s">
         <v>172</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="19" t="s">
         <v>122</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="D24" s="10" t="s">
         <v>171</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="D25" s="10" t="s">
         <v>173</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="D26" s="10" t="s">
         <v>174</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="D27" s="10" t="s">
         <v>175</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="D28" s="10" t="s">
         <v>176</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="19" t="s">
         <v>134</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="D30" s="10" t="s">
         <v>171</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="D31" s="10" t="s">
         <v>177</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="D32" s="10" t="s">
         <v>178</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="19" t="s">
         <v>143</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="D34" s="10" t="s">
         <v>171</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="D35" s="10" t="s">
         <v>13</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="D36" s="10" t="s">
         <v>112</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="19" t="s">
         <v>147</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="D38" s="10" t="s">
         <v>171</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="D39" s="10" t="s">
         <v>13</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="D40" s="10" t="s">
         <v>179</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="19" t="s">
         <v>153</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="D42" s="10" t="s">
         <v>171</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="D43" s="10" t="s">
         <v>180</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="D44" s="10" t="s">
         <v>181</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="D45" s="10" t="s">
         <v>119</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="19" t="s">
         <v>305</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="D47" s="10" t="s">
         <v>296</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="19" t="s">
         <v>193</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="C49" s="8" t="s">
         <v>198</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="17" customFormat="1">
       <c r="A50" s="20"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
@@ -3431,7 +3431,7 @@
       <c r="G50" s="49"/>
       <c r="K50" s="18"/>
     </row>
-    <row r="51" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="37" customFormat="1">
       <c r="A51" s="33" t="s">
         <v>186</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="G51" s="47"/>
       <c r="K51" s="38"/>
     </row>
-    <row r="52" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="37" customFormat="1">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -3467,7 +3467,7 @@
       <c r="G52" s="47"/>
       <c r="K52" s="38"/>
     </row>
-    <row r="53" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="37" customFormat="1">
       <c r="A53" s="33" t="s">
         <v>292</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="G53" s="47"/>
       <c r="K53" s="38"/>
     </row>
-    <row r="54" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="37" customFormat="1">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -3503,7 +3503,7 @@
       <c r="G54" s="47"/>
       <c r="K54" s="38"/>
     </row>
-    <row r="55" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="37" customFormat="1">
       <c r="A55" s="33"/>
       <c r="B55" s="34" t="s">
         <v>300</v>
@@ -3523,7 +3523,7 @@
       <c r="G55" s="47"/>
       <c r="K55" s="38"/>
     </row>
-    <row r="56" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="56" customFormat="1">
       <c r="A56" s="50" t="s">
         <v>285</v>
       </c>
@@ -3539,7 +3539,7 @@
       <c r="G56" s="55"/>
       <c r="K56" s="57"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="19" t="s">
         <v>313</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="D58" s="10" t="s">
         <v>329</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="37" customFormat="1">
       <c r="A59" s="33" t="s">
         <v>333</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="G59" s="47"/>
       <c r="K59" s="38"/>
     </row>
-    <row r="60" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="37" customFormat="1">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -3604,7 +3604,7 @@
       <c r="G60" s="47"/>
       <c r="K60" s="38"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="B61" s="9" t="s">
         <v>341</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="B62" s="8" t="s">
         <v>338</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="37" customFormat="1">
       <c r="A63" s="33" t="s">
         <v>349</v>
       </c>
@@ -3660,7 +3660,7 @@
       <c r="G63" s="47"/>
       <c r="K63" s="38"/>
     </row>
-    <row r="64" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="37" customFormat="1">
       <c r="A64" s="33" t="s">
         <v>365</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="G64" s="47"/>
       <c r="K64" s="38"/>
     </row>
-    <row r="65" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="37" customFormat="1">
       <c r="A65" s="33"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -3722,7 +3722,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="24"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
@@ -3733,7 +3733,7 @@
     <col min="7" max="7" width="53.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="24" t="s">
         <v>214</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="24" t="s">
         <v>215</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="23" customFormat="1">
       <c r="A3" s="24" t="s">
         <v>216</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>BYST</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="24" t="s">
         <v>217</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="24" t="s">
         <v>217</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="23" customFormat="1">
       <c r="A6" s="24" t="s">
         <v>223</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>CHAT</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="24" t="s">
         <v>225</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="23" customFormat="1">
       <c r="A8" s="24" t="s">
         <v>214</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="D8" s="28"/>
     </row>
-    <row r="9" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="23" customFormat="1">
       <c r="A9" s="24" t="s">
         <v>223</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>CRMR</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="23" customFormat="1">
       <c r="A10" s="24" t="s">
         <v>214</v>
       </c>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="23" customFormat="1">
       <c r="A11" s="24" t="s">
         <v>323</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="23" customFormat="1">
       <c r="A12" s="24" t="s">
         <v>226</v>
       </c>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="23" customFormat="1">
       <c r="A13" s="24" t="s">
         <v>214</v>
       </c>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="D13" s="28"/>
     </row>
-    <row r="14" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="23" customFormat="1">
       <c r="A14" s="24" t="s">
         <v>226</v>
       </c>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="D14" s="28"/>
     </row>
-    <row r="15" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="23" customFormat="1">
       <c r="A15" s="24" t="s">
         <v>214</v>
       </c>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D15" s="28"/>
     </row>
-    <row r="16" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="23" customFormat="1">
       <c r="A16" s="24" t="s">
         <v>294</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="23" customFormat="1">
       <c r="A17" s="24" t="s">
         <v>319</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="23" customFormat="1">
       <c r="A18" s="24" t="s">
         <v>227</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>GMLT</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="23" customFormat="1">
       <c r="A19" s="24" t="s">
         <v>368</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="23" customFormat="1">
       <c r="A20" s="24" t="s">
         <v>228</v>
       </c>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="D20" s="28"/>
     </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="23" customFormat="1">
       <c r="A21" s="24" t="s">
         <v>346</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="24" customFormat="1">
       <c r="A22" s="24" t="s">
         <v>229</v>
       </c>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="D22" s="27"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="24" t="s">
         <v>218</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="23" customFormat="1">
       <c r="A24" s="24" t="s">
         <v>237</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>JOIN</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="23" customFormat="1">
       <c r="A25" s="24" t="s">
         <v>238</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>LEVE</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="23" customFormat="1">
       <c r="A26" s="24" t="s">
         <v>223</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>LGIN</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="23" customFormat="1">
       <c r="A27" s="24" t="s">
         <v>223</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>LGOT</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="24" t="s">
         <v>239</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="24" t="s">
         <v>244</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="24" t="s">
         <v>246</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="31" customFormat="1">
       <c r="A31" s="24" t="s">
         <v>249</v>
       </c>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="D31" s="28"/>
     </row>
-    <row r="32" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="31" customFormat="1">
       <c r="A32" s="24" t="s">
         <v>250</v>
       </c>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="D32" s="28"/>
     </row>
-    <row r="33" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="31" customFormat="1">
       <c r="A33" s="24" t="s">
         <v>316</v>
       </c>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="D33" s="28"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="24" t="s">
         <v>217</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>4|6|8|10|12|14|16|18|20|22|24</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="24" t="s">
         <v>252</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="24" t="s">
         <v>217</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="F36" s="32"/>
     </row>
-    <row r="37" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="31" customFormat="1">
       <c r="A37" s="24" t="s">
         <v>258</v>
       </c>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="D37" s="28"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="24" t="s">
         <v>259</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="23" customFormat="1">
       <c r="A39" s="24" t="s">
         <v>261</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>PING</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="24" t="s">
         <v>262</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="24" t="s">
         <v>265</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>[a-zA-Z\d_]+</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="31" customFormat="1">
       <c r="A42" s="24" t="s">
         <v>266</v>
       </c>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D42" s="28"/>
     </row>
-    <row r="43" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="31" customFormat="1">
       <c r="A43" s="24" t="s">
         <v>267</v>
       </c>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="D43" s="28"/>
     </row>
-    <row r="44" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="31" customFormat="1">
       <c r="A44" s="24" t="s">
         <v>214</v>
       </c>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D44" s="28"/>
     </row>
-    <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="23" customFormat="1">
       <c r="A45" s="24" t="s">
         <v>268</v>
       </c>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="D45" s="28"/>
     </row>
-    <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="23" customFormat="1">
       <c r="A46" s="24" t="s">
         <v>343</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="23" customFormat="1">
       <c r="A47" s="24" t="s">
         <v>223</v>
       </c>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="D47" s="28"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="24" t="s">
         <v>270</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="24" t="s">
         <v>217</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" s="31" customFormat="1">
       <c r="A50" s="24" t="s">
         <v>214</v>
       </c>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D50" s="28"/>
     </row>
-    <row r="51" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" s="23" customFormat="1">
       <c r="A51" s="24" t="s">
         <v>271</v>
       </c>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="D51" s="28"/>
     </row>
-    <row r="52" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" s="31" customFormat="1">
       <c r="A52" s="24" t="s">
         <v>272</v>
       </c>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="D52" s="28"/>
     </row>
-    <row r="53" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" s="31" customFormat="1">
       <c r="A53" s="24" t="s">
         <v>291</v>
       </c>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="D53" s="28"/>
     </row>
-    <row r="54" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" s="23" customFormat="1">
       <c r="A54" s="24" t="s">
         <v>273</v>
       </c>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D54" s="28"/>
     </row>
-    <row r="55" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="23" customFormat="1">
       <c r="A55" s="24" t="s">
         <v>223</v>
       </c>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="D55" s="28"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="24" t="s">
         <v>274</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" s="23" customFormat="1">
       <c r="A57" s="24" t="s">
         <v>223</v>
       </c>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="D57" s="28"/>
     </row>
-    <row r="58" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="23" customFormat="1">
       <c r="A58" s="24" t="s">
         <v>275</v>
       </c>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="D58" s="28"/>
     </row>
-    <row r="59" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" s="23" customFormat="1">
       <c r="A59" s="24" t="s">
         <v>273</v>
       </c>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D59" s="28"/>
     </row>
-    <row r="60" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" s="31" customFormat="1">
       <c r="A60" s="24" t="s">
         <v>214</v>
       </c>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="D60" s="28"/>
     </row>
-    <row r="61" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" s="31" customFormat="1">
       <c r="A61" s="24" t="s">
         <v>276</v>
       </c>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="D61" s="28"/>
     </row>
-    <row r="62" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" s="31" customFormat="1">
       <c r="A62" s="24" t="s">
         <v>277</v>
       </c>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="D62" s="28"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="24" t="s">
         <v>217</v>
       </c>
@@ -4674,23 +4674,23 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="90" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="91"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="89"/>
       <c r="B2" s="92"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="89" t="s">
         <v>20</v>
       </c>
@@ -4698,11 +4698,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="17.25" thickBot="1">
       <c r="A4" s="93"/>
       <c r="B4" s="94"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
